--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5000</v>
+        <v>7700</v>
       </c>
       <c r="E8" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="F8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>5400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -740,28 +743,31 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
-        <v>700</v>
-      </c>
       <c r="G9" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="H9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -769,37 +775,43 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2700</v>
+        <v>4600</v>
       </c>
       <c r="E10" s="3">
         <v>2700</v>
       </c>
       <c r="F10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
-        <v>1100</v>
-      </c>
       <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,28 +823,29 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
-        <v>4000</v>
-      </c>
       <c r="F12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>3900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +962,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6500</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
-        <v>10100</v>
+        <v>6300</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>9800</v>
       </c>
       <c r="G17" s="3">
-        <v>6200</v>
+        <v>4700</v>
       </c>
       <c r="H17" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,28 +992,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5400</v>
-      </c>
       <c r="F18" s="3">
-        <v>-3300</v>
+        <v>-5300</v>
       </c>
       <c r="G18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-3600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,57 +1040,61 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F21" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="G21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-3200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1066,13 +1102,16 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1086,8 +1125,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1095,28 +1134,31 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5400</v>
-      </c>
       <c r="F23" s="3">
-        <v>-4400</v>
+        <v>-5300</v>
       </c>
       <c r="G23" s="3">
-        <v>-3400</v>
+        <v>-4300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,13 +1166,16 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1142,19 +1187,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1230,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-5400</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>-4400</v>
+        <v>-5300</v>
       </c>
       <c r="G26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-3700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1262,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
-        <v>-5600</v>
+        <v>-2900</v>
       </c>
       <c r="F27" s="3">
-        <v>-3900</v>
+        <v>-5500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="H27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,57 +1422,63 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
-        <v>-5600</v>
+        <v>-2900</v>
       </c>
       <c r="F33" s="3">
-        <v>-3900</v>
+        <v>-5500</v>
       </c>
       <c r="G33" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="H33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1518,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
-        <v>-5600</v>
+        <v>-2900</v>
       </c>
       <c r="F35" s="3">
-        <v>-3900</v>
+        <v>-5500</v>
       </c>
       <c r="G35" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="H35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1550,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1617,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6700</v>
+        <v>45000</v>
       </c>
       <c r="E41" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,20 +1647,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600</v>
+        <v>1100</v>
       </c>
       <c r="E42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,19 +1679,22 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7500</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,19 +1711,22 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>1200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1648,19 +1743,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,19 +1775,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23300</v>
+        <v>60000</v>
       </c>
       <c r="E46" s="3">
-        <v>18500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>18000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1717,8 +1821,8 @@
       <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1735,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1744,10 +1851,10 @@
         <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,19 +1871,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,8 +1981,8 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2031,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26100</v>
+        <v>62900</v>
       </c>
       <c r="E54" s="3">
-        <v>21500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>25500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>20900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,19 +2093,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>2400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,19 +2123,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2022,19 +2155,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5900</v>
+        <v>8800</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2187,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9800</v>
+        <v>13400</v>
       </c>
       <c r="E60" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,11 +2231,11 @@
         <v>4600</v>
       </c>
       <c r="E61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2118,11 +2263,11 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2379,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15500</v>
+        <v>19300</v>
       </c>
       <c r="E66" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>15100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2489,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>95400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>93900</v>
+        <v>93100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>91600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,19 +2553,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-101000</v>
+        <v>-100700</v>
       </c>
       <c r="E72" s="3">
-        <v>-98000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-98500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-95600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2681,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-84800</v>
+        <v>43600</v>
       </c>
       <c r="E76" s="3">
-        <v>-82400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-82700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-80400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2745,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
-        <v>-5600</v>
+        <v>-2900</v>
       </c>
       <c r="F81" s="3">
-        <v>-3900</v>
+        <v>-5500</v>
       </c>
       <c r="G81" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="H81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2642,28 +2840,31 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3020,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4400</v>
+        <v>2100</v>
       </c>
       <c r="E89" s="3">
-        <v>-5700</v>
+        <v>-4200</v>
       </c>
       <c r="F89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-4100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,28 +3162,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>1300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,28 +3336,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3600</v>
+        <v>35400</v>
       </c>
       <c r="E100" s="3">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="F100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>2100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,62 +3368,71 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2000</v>
+        <v>38500</v>
       </c>
       <c r="E102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,180 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
-        <v>43373</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
-        <v>4900</v>
+        <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>4500</v>
+        <v>7900</v>
       </c>
       <c r="G8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="G9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="3">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="F10" s="3">
-        <v>2700</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="H10" s="3">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="E17" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="F17" s="3">
-        <v>9800</v>
+        <v>7600</v>
       </c>
       <c r="G17" s="3">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="H17" s="3">
-        <v>6000</v>
+        <v>10200</v>
       </c>
       <c r="I17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,72 +1108,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4100</v>
-      </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>-5000</v>
       </c>
       <c r="I21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1114,10 +1195,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1128,61 +1209,73 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-5300</v>
-      </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-1500</v>
       </c>
       <c r="H23" s="3">
-        <v>-3300</v>
+        <v>-5500</v>
       </c>
       <c r="I23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1190,19 +1283,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1400</v>
+        <v>-3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-5300</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-3300</v>
+        <v>-5500</v>
       </c>
       <c r="I26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="H27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="H33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="H35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
-        <v>43373</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,25 +1791,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45000</v>
+        <v>33100</v>
       </c>
       <c r="E41" s="3">
-        <v>6500</v>
+        <v>35600</v>
       </c>
       <c r="F41" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>46700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1650,26 +1825,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F42" s="3">
         <v>1100</v>
       </c>
-      <c r="E42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,25 +1863,31 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>12100</v>
       </c>
       <c r="E43" s="3">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="F43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1714,25 +1901,31 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2600</v>
+        <v>6900</v>
       </c>
       <c r="E44" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1746,8 +1939,14 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1755,16 +1954,16 @@
         <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="F45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,25 +1977,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>60000</v>
+        <v>59400</v>
       </c>
       <c r="E46" s="3">
-        <v>22700</v>
+        <v>52800</v>
       </c>
       <c r="F46" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>62200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>18700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1810,25 +2015,31 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1842,25 +2053,31 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1874,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1883,16 +2106,16 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1984,11 +2225,11 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,25 +2281,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62900</v>
+        <v>68500</v>
       </c>
       <c r="E54" s="3">
-        <v>25500</v>
+        <v>62000</v>
       </c>
       <c r="F54" s="3">
-        <v>20900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>65300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>21700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,25 +2355,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>5900</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>4200</v>
       </c>
       <c r="F57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2126,25 +2389,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2158,25 +2427,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="E59" s="3">
-        <v>5800</v>
+        <v>7300</v>
       </c>
       <c r="F59" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>9100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2190,25 +2465,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13400</v>
+        <v>14400</v>
       </c>
       <c r="E60" s="3">
-        <v>9600</v>
+        <v>12300</v>
       </c>
       <c r="F60" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2222,26 +2503,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
         <v>4500</v>
       </c>
       <c r="F61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2254,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2263,16 +2556,16 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,25 +2693,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19300</v>
+        <v>26100</v>
       </c>
       <c r="E66" s="3">
-        <v>15100</v>
+        <v>18000</v>
       </c>
       <c r="F66" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>20000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>10100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>93100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>91600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>96600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2524,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,25 +2899,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100700</v>
+        <v>-110000</v>
       </c>
       <c r="E72" s="3">
-        <v>-98500</v>
+        <v>-107300</v>
       </c>
       <c r="F72" s="3">
-        <v>-95600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-104500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-99200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,25 +3051,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43600</v>
+        <v>42400</v>
       </c>
       <c r="E76" s="3">
-        <v>-82700</v>
+        <v>44000</v>
       </c>
       <c r="F76" s="3">
-        <v>-80400</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>45200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-83400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
-        <v>43373</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="H81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,28 +3242,34 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2100</v>
+        <v>-6500</v>
       </c>
       <c r="E89" s="3">
         <v>-4200</v>
       </c>
       <c r="F89" s="3">
-        <v>-5600</v>
+        <v>2100</v>
       </c>
       <c r="G89" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35400</v>
+        <v>6800</v>
       </c>
       <c r="E100" s="3">
-        <v>3500</v>
+        <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>6600</v>
+        <v>36700</v>
       </c>
       <c r="G100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>600</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3380,59 +3879,71 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>200</v>
-      </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38500</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1900</v>
+        <v>-11100</v>
       </c>
       <c r="F102" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>900</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E8" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="F8" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="G8" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="H8" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>5400</v>
@@ -767,22 +767,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H9" s="3">
         <v>2000</v>
       </c>
       <c r="I9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
@@ -805,19 +805,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F10" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="G10" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H10" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
@@ -859,25 +859,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="3">
         <v>2400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2200</v>
       </c>
       <c r="G12" s="3">
         <v>2100</v>
       </c>
       <c r="H12" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="I12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K12" s="3">
         <v>3900</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7600</v>
-      </c>
       <c r="G17" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="H17" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="I17" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="J17" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K17" s="3">
         <v>9000</v>
@@ -1062,25 +1062,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E18" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F18" s="3">
         <v>300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="I18" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J18" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="K18" s="3">
         <v>-3600</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1154,25 +1154,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H21" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J21" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="K21" s="3">
         <v>-3200</v>
@@ -1230,10 +1230,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -1242,13 +1242,13 @@
         <v>-1500</v>
       </c>
       <c r="H23" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="I23" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J23" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1344,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E26" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1356,13 +1356,13 @@
         <v>-1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="I26" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J26" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="K26" s="3">
         <v>-3700</v>
@@ -1382,25 +1382,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="F27" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J27" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="K27" s="3">
         <v>-4000</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1610,25 +1610,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="F33" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G33" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J33" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="K33" s="3">
         <v>-4000</v>
@@ -1686,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G35" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J35" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="K35" s="3">
         <v>-4000</v>
@@ -1799,19 +1799,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33100</v>
+        <v>34700</v>
       </c>
       <c r="E41" s="3">
-        <v>35600</v>
+        <v>37300</v>
       </c>
       <c r="F41" s="3">
-        <v>46700</v>
+        <v>48900</v>
       </c>
       <c r="G41" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="H41" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1837,19 +1837,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G42" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H42" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1875,19 +1875,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="E43" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="F43" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G43" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="H43" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="E44" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F44" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G44" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H44" s="3">
         <v>1300</v>
@@ -1951,19 +1951,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G45" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1989,19 +1989,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>59400</v>
+        <v>62200</v>
       </c>
       <c r="E46" s="3">
-        <v>52800</v>
+        <v>55300</v>
       </c>
       <c r="F46" s="3">
-        <v>62200</v>
+        <v>65200</v>
       </c>
       <c r="G46" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="H46" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E47" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
-        <v>2300</v>
-      </c>
       <c r="H48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2293,19 +2293,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68500</v>
+        <v>71700</v>
       </c>
       <c r="E54" s="3">
-        <v>62000</v>
+        <v>65000</v>
       </c>
       <c r="F54" s="3">
-        <v>65300</v>
+        <v>68400</v>
       </c>
       <c r="G54" s="3">
-        <v>26500</v>
+        <v>27700</v>
       </c>
       <c r="H54" s="3">
-        <v>21700</v>
+        <v>22800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
-        <v>4000</v>
-      </c>
       <c r="G57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2404,7 +2404,7 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -2413,7 +2413,7 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2439,19 +2439,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E59" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="G59" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2477,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="E60" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="F60" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="G60" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="H60" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2515,16 +2515,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E61" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -2553,7 +2553,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -2705,19 +2705,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26100</v>
+        <v>27300</v>
       </c>
       <c r="E66" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="F66" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="G66" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="H66" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="H70" s="3">
-        <v>95000</v>
+        <v>99600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2911,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-110000</v>
+        <v>-115200</v>
       </c>
       <c r="E72" s="3">
-        <v>-107300</v>
+        <v>-112400</v>
       </c>
       <c r="F72" s="3">
-        <v>-104500</v>
+        <v>-109400</v>
       </c>
       <c r="G72" s="3">
-        <v>-102200</v>
+        <v>-107100</v>
       </c>
       <c r="H72" s="3">
-        <v>-99200</v>
+        <v>-103900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3063,19 +3063,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E76" s="3">
-        <v>44000</v>
+        <v>46100</v>
       </c>
       <c r="F76" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="G76" s="3">
-        <v>-85800</v>
+        <v>-89900</v>
       </c>
       <c r="H76" s="3">
-        <v>-83400</v>
+        <v>-87400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3182,25 +3182,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="F81" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G81" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J81" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="K81" s="3">
         <v>-4000</v>
@@ -3464,22 +3464,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="E89" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="F89" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G89" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H89" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="I89" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J89" s="3">
         <v>-1000</v>
@@ -3632,25 +3632,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-7000</v>
+        <v>-7400</v>
       </c>
       <c r="F94" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H94" s="3">
         <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J94" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K94" s="3">
         <v>1300</v>
@@ -3838,25 +3838,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>36700</v>
+        <v>38500</v>
       </c>
       <c r="G100" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H100" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I100" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="J100" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K100" s="3">
         <v>2100</v>
@@ -3914,22 +3914,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11100</v>
+        <v>-11700</v>
       </c>
       <c r="F102" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="E8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
-        <v>8300</v>
-      </c>
       <c r="G8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
-        <v>4900</v>
-      </c>
       <c r="I8" s="3">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="3">
         <v>1600</v>
       </c>
       <c r="K8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
-        <v>2000</v>
-      </c>
       <c r="I9" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
+        <v>700</v>
+      </c>
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2900</v>
       </c>
       <c r="H10" s="3">
         <v>2900</v>
       </c>
       <c r="I10" s="3">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="J10" s="3">
         <v>900</v>
       </c>
       <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
-        <v>2100</v>
-      </c>
       <c r="H12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8300</v>
+        <v>11100</v>
       </c>
       <c r="E17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-5200</v>
-      </c>
       <c r="I21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1241,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1215,8 +1255,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,11 +1320,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1289,19 +1335,22 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34700</v>
+        <v>24100</v>
       </c>
       <c r="E41" s="3">
-        <v>37300</v>
+        <v>34900</v>
       </c>
       <c r="F41" s="3">
-        <v>48900</v>
+        <v>37400</v>
       </c>
       <c r="G41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,29 +1918,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12600</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="F43" s="3">
-        <v>9100</v>
-      </c>
       <c r="G43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H43" s="3">
         <v>8000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,29 +2000,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,28 +2082,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62200</v>
+        <v>71100</v>
       </c>
       <c r="E46" s="3">
-        <v>55300</v>
+        <v>62500</v>
       </c>
       <c r="F46" s="3">
-        <v>65200</v>
+        <v>55600</v>
       </c>
       <c r="G46" s="3">
-        <v>24700</v>
+        <v>65500</v>
       </c>
       <c r="H46" s="3">
-        <v>19600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>24800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>19700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2021,19 +2123,22 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F47" s="3">
         <v>7200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>500</v>
       </c>
       <c r="G47" s="3">
         <v>500</v>
@@ -2041,8 +2146,8 @@
       <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,13 +2223,13 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2231,8 +2351,8 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71700</v>
+        <v>75900</v>
       </c>
       <c r="E54" s="3">
-        <v>65000</v>
+        <v>72100</v>
       </c>
       <c r="F54" s="3">
-        <v>68400</v>
+        <v>65300</v>
       </c>
       <c r="G54" s="3">
-        <v>27700</v>
+        <v>68700</v>
       </c>
       <c r="H54" s="3">
-        <v>22800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>22900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
-        <v>4400</v>
-      </c>
       <c r="F57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,16 +2526,19 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -2413,11 +2547,11 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7300</v>
+        <v>13000</v>
       </c>
       <c r="E59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15000</v>
+        <v>23300</v>
       </c>
       <c r="E60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
-        <v>14500</v>
-      </c>
       <c r="G60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>4700</v>
       </c>
       <c r="F61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,13 +2690,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -2562,13 +2708,13 @@
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27300</v>
+        <v>31200</v>
       </c>
       <c r="E66" s="3">
-        <v>18900</v>
+        <v>27400</v>
       </c>
       <c r="F66" s="3">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="G66" s="3">
-        <v>16400</v>
+        <v>21100</v>
       </c>
       <c r="H66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I66" s="3">
         <v>10600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>101200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>99600</v>
+        <v>101600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,28 +3076,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-115200</v>
+        <v>-115800</v>
       </c>
       <c r="E72" s="3">
-        <v>-112400</v>
+        <v>-115700</v>
       </c>
       <c r="F72" s="3">
-        <v>-109400</v>
+        <v>-112900</v>
       </c>
       <c r="G72" s="3">
-        <v>-107100</v>
+        <v>-109900</v>
       </c>
       <c r="H72" s="3">
-        <v>-103900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-107500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-104300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="E76" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="F76" s="3">
-        <v>47400</v>
+        <v>46300</v>
       </c>
       <c r="G76" s="3">
-        <v>-89900</v>
+        <v>47600</v>
       </c>
       <c r="H76" s="3">
-        <v>-87400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-87800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,28 +3447,31 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
-        <v>2200</v>
-      </c>
       <c r="G89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-2800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,37 +3732,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>-400</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>38500</v>
-      </c>
       <c r="G100" s="3">
+        <v>38600</v>
+      </c>
+      <c r="H100" s="3">
         <v>3800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>7200</v>
       </c>
       <c r="I100" s="3">
         <v>7200</v>
       </c>
       <c r="J100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
-        <v>41900</v>
-      </c>
       <c r="G102" s="3">
+        <v>42100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,205 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10800</v>
+        <v>8500</v>
       </c>
       <c r="E8" s="3">
-        <v>5500</v>
+        <v>11100</v>
       </c>
       <c r="F8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
-        <v>8400</v>
-      </c>
       <c r="H8" s="3">
-        <v>5300</v>
+        <v>8500</v>
       </c>
       <c r="I8" s="3">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="J8" s="3">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="K8" s="3">
         <v>1600</v>
       </c>
       <c r="L8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="F9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
-        <v>3300</v>
-      </c>
       <c r="H9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6400</v>
+        <v>5100</v>
       </c>
       <c r="E10" s="3">
-        <v>3100</v>
+        <v>6600</v>
       </c>
       <c r="F10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
-        <v>5100</v>
-      </c>
       <c r="H10" s="3">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="I10" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J10" s="3">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
       </c>
       <c r="L10" s="3">
+        <v>900</v>
+      </c>
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3000</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
-        <v>4200</v>
-      </c>
       <c r="J12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11100</v>
+        <v>16200</v>
       </c>
       <c r="E17" s="3">
-        <v>8400</v>
+        <v>11400</v>
       </c>
       <c r="F17" s="3">
-        <v>6100</v>
+        <v>8600</v>
       </c>
       <c r="G17" s="3">
-        <v>8000</v>
+        <v>6200</v>
       </c>
       <c r="H17" s="3">
-        <v>6900</v>
+        <v>8200</v>
       </c>
       <c r="I17" s="3">
-        <v>10700</v>
+        <v>7100</v>
       </c>
       <c r="J17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1176,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2700</v>
       </c>
       <c r="F21" s="3">
         <v>-2800</v>
       </c>
       <c r="G21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1283,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1258,8 +1297,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1267,54 +1306,60 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3000</v>
       </c>
       <c r="F23" s="3">
         <v>-3100</v>
       </c>
       <c r="G23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-1500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-5700</v>
+        <v>-1600</v>
       </c>
       <c r="J23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1323,11 +1368,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1338,19 +1383,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3000</v>
       </c>
       <c r="F26" s="3">
         <v>-3100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-5700</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E27" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I27" s="3">
-        <v>-6000</v>
+        <v>-3300</v>
       </c>
       <c r="J27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E33" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I33" s="3">
-        <v>-6000</v>
+        <v>-3300</v>
       </c>
       <c r="J33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E35" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I35" s="3">
-        <v>-6000</v>
+        <v>-3300</v>
       </c>
       <c r="J35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1965,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24100</v>
+        <v>21500</v>
       </c>
       <c r="E41" s="3">
-        <v>34900</v>
+        <v>24600</v>
       </c>
       <c r="F41" s="3">
-        <v>37400</v>
+        <v>35600</v>
       </c>
       <c r="G41" s="3">
-        <v>49100</v>
+        <v>38200</v>
       </c>
       <c r="H41" s="3">
-        <v>7100</v>
+        <v>50200</v>
       </c>
       <c r="I41" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1921,32 +2007,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12900</v>
+        <v>7700</v>
       </c>
       <c r="E42" s="3">
-        <v>4500</v>
+        <v>13200</v>
       </c>
       <c r="F42" s="3">
-        <v>1800</v>
+        <v>4600</v>
       </c>
       <c r="G42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,31 +2051,34 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22000</v>
+        <v>28100</v>
       </c>
       <c r="E43" s="3">
-        <v>12700</v>
+        <v>22400</v>
       </c>
       <c r="F43" s="3">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="G43" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="I43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>8200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2003,31 +2095,34 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8700</v>
+        <v>7300</v>
       </c>
       <c r="E44" s="3">
-        <v>7300</v>
+        <v>8800</v>
       </c>
       <c r="F44" s="3">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="G44" s="3">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="H44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>1400</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2044,31 +2139,34 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3100</v>
-      </c>
       <c r="H45" s="3">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2085,31 +2183,34 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>71100</v>
+        <v>68800</v>
       </c>
       <c r="E46" s="3">
-        <v>62500</v>
+        <v>72600</v>
       </c>
       <c r="F46" s="3">
-        <v>55600</v>
+        <v>63800</v>
       </c>
       <c r="G46" s="3">
-        <v>65500</v>
+        <v>56800</v>
       </c>
       <c r="H46" s="3">
-        <v>24800</v>
+        <v>66900</v>
       </c>
       <c r="I46" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2126,22 +2227,25 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G47" s="3">
-        <v>500</v>
+        <v>7400</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -2149,8 +2253,8 @@
       <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2167,31 +2271,34 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
-        <v>2200</v>
-      </c>
       <c r="G48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
-        <v>2400</v>
-      </c>
       <c r="I48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,13 +2336,13 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,13 +2447,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2354,8 +2473,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2535,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75900</v>
+        <v>75600</v>
       </c>
       <c r="E54" s="3">
-        <v>72100</v>
+        <v>77500</v>
       </c>
       <c r="F54" s="3">
-        <v>65300</v>
+        <v>73600</v>
       </c>
       <c r="G54" s="3">
-        <v>68700</v>
+        <v>66600</v>
       </c>
       <c r="H54" s="3">
-        <v>27800</v>
+        <v>70100</v>
       </c>
       <c r="I54" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>28400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>23300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2617,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
-        <v>6200</v>
+        <v>8200</v>
       </c>
       <c r="F57" s="3">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="H57" s="3">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="I57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,10 +2671,10 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -2550,11 +2683,11 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,31 +2703,34 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="E59" s="3">
-        <v>7400</v>
+        <v>13200</v>
       </c>
       <c r="F59" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G59" s="3">
-        <v>9600</v>
+        <v>7900</v>
       </c>
       <c r="H59" s="3">
-        <v>6300</v>
+        <v>9800</v>
       </c>
       <c r="I59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2611,31 +2747,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23300</v>
+        <v>24700</v>
       </c>
       <c r="E60" s="3">
-        <v>15100</v>
+        <v>23800</v>
       </c>
       <c r="F60" s="3">
-        <v>12900</v>
+        <v>15400</v>
       </c>
       <c r="G60" s="3">
-        <v>14600</v>
+        <v>13200</v>
       </c>
       <c r="H60" s="3">
-        <v>10400</v>
+        <v>14900</v>
       </c>
       <c r="I60" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2661,23 +2803,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,7 +2847,7 @@
         <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
@@ -2711,13 +2856,13 @@
         <v>900</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3011,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31200</v>
+        <v>32500</v>
       </c>
       <c r="E66" s="3">
-        <v>27400</v>
+        <v>31900</v>
       </c>
       <c r="F66" s="3">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="G66" s="3">
-        <v>21100</v>
+        <v>19400</v>
       </c>
       <c r="H66" s="3">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="I66" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>16800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>101600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>100000</v>
+        <v>103800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>102100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,31 +3249,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-115800</v>
+        <v>-125900</v>
       </c>
       <c r="E72" s="3">
-        <v>-115700</v>
+        <v>-118200</v>
       </c>
       <c r="F72" s="3">
-        <v>-112900</v>
+        <v>-118200</v>
       </c>
       <c r="G72" s="3">
-        <v>-109900</v>
+        <v>-115300</v>
       </c>
       <c r="H72" s="3">
-        <v>-107500</v>
+        <v>-112200</v>
       </c>
       <c r="I72" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-109800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-106500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3425,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44700</v>
+        <v>43100</v>
       </c>
       <c r="E76" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="F76" s="3">
-        <v>46300</v>
+        <v>45600</v>
       </c>
       <c r="G76" s="3">
-        <v>47600</v>
+        <v>47300</v>
       </c>
       <c r="H76" s="3">
-        <v>-90300</v>
+        <v>48600</v>
       </c>
       <c r="I76" s="3">
-        <v>-87800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-92200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-89600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E81" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I81" s="3">
-        <v>-6000</v>
+        <v>-3300</v>
       </c>
       <c r="J81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,7 +3639,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3450,28 +3648,31 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6400</v>
+        <v>-5900</v>
       </c>
       <c r="E89" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F89" s="3">
-        <v>-4400</v>
+        <v>-7000</v>
       </c>
       <c r="G89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4600</v>
-      </c>
       <c r="I89" s="3">
-        <v>-6100</v>
+        <v>-4700</v>
       </c>
       <c r="J89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,40 +3952,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-400</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3900</v>
+        <v>4100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2800</v>
+        <v>-4000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7400</v>
+        <v>-2900</v>
       </c>
       <c r="G94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H94" s="3">
         <v>1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4320,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>7100</v>
-      </c>
       <c r="F100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>38600</v>
-      </c>
       <c r="H100" s="3">
-        <v>3800</v>
+        <v>39400</v>
       </c>
       <c r="I100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="J100" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10800</v>
+        <v>-2800</v>
       </c>
       <c r="E102" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-11700</v>
-      </c>
       <c r="G102" s="3">
-        <v>42100</v>
+        <v>-12000</v>
       </c>
       <c r="H102" s="3">
+        <v>42900</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E8" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="F8" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G8" s="3">
         <v>2900</v>
       </c>
       <c r="H8" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="I8" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K8" s="3">
         <v>1600</v>
@@ -780,19 +780,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E9" s="3">
         <v>4500</v>
       </c>
       <c r="F9" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I9" s="3">
         <v>2400</v>
@@ -824,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F10" s="3">
         <v>3200</v>
@@ -836,13 +836,13 @@
         <v>1700</v>
       </c>
       <c r="H10" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I10" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J10" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
@@ -886,10 +886,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
         <v>2800</v>
@@ -904,7 +904,7 @@
         <v>2200</v>
       </c>
       <c r="J12" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K12" s="3">
         <v>2200</v>
@@ -1077,25 +1077,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="E17" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="F17" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G17" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H17" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I17" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J17" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="K17" s="3">
         <v>4800</v>
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1136,10 +1136,10 @@
         <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J18" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3">
         <v>-3200</v>
@@ -1227,16 +1227,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2900</v>
       </c>
       <c r="H21" s="3">
         <v>400</v>
@@ -1245,7 +1245,7 @@
         <v>-1300</v>
       </c>
       <c r="J21" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="K21" s="3">
         <v>-3000</v>
@@ -1315,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1324,7 +1324,7 @@
         <v>-3100</v>
       </c>
       <c r="G23" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1333,7 +1333,7 @@
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K23" s="3">
         <v>-3300</v>
@@ -1447,16 +1447,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>-1600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K26" s="3">
         <v>-3300</v>
@@ -1491,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J27" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K27" s="3">
         <v>-3400</v>
@@ -1755,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J33" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K33" s="3">
         <v>-3400</v>
@@ -1843,7 +1843,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J35" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K35" s="3">
         <v>-3400</v>
@@ -1972,25 +1972,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="E41" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="F41" s="3">
-        <v>35600</v>
+        <v>35100</v>
       </c>
       <c r="G41" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="H41" s="3">
-        <v>50200</v>
+        <v>49500</v>
       </c>
       <c r="I41" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J41" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E42" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F42" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H42" s="3">
         <v>1200</v>
@@ -2060,22 +2060,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28100</v>
+        <v>25600</v>
       </c>
       <c r="E43" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="F43" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="G43" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H43" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I43" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J43" s="3">
         <v>4400</v>
@@ -2107,22 +2107,22 @@
         <v>7300</v>
       </c>
       <c r="E44" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="F44" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G44" s="3">
         <v>4500</v>
       </c>
       <c r="H44" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I44" s="3">
         <v>2400</v>
       </c>
       <c r="J44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
         <v>3500</v>
@@ -2166,7 +2166,7 @@
         <v>4600</v>
       </c>
       <c r="J45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2192,25 +2192,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68800</v>
+        <v>65400</v>
       </c>
       <c r="E46" s="3">
-        <v>72600</v>
+        <v>71700</v>
       </c>
       <c r="F46" s="3">
-        <v>63800</v>
+        <v>63000</v>
       </c>
       <c r="G46" s="3">
-        <v>56800</v>
+        <v>56000</v>
       </c>
       <c r="H46" s="3">
-        <v>66900</v>
+        <v>66000</v>
       </c>
       <c r="I46" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="J46" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2236,16 +2236,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F47" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G47" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -2280,7 +2280,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
@@ -2289,7 +2289,7 @@
         <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2500</v>
@@ -2456,7 +2456,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2544,25 +2544,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75600</v>
+        <v>74600</v>
       </c>
       <c r="E54" s="3">
-        <v>77500</v>
+        <v>76500</v>
       </c>
       <c r="F54" s="3">
-        <v>73600</v>
+        <v>72600</v>
       </c>
       <c r="G54" s="3">
-        <v>66600</v>
+        <v>65800</v>
       </c>
       <c r="H54" s="3">
-        <v>70100</v>
+        <v>69200</v>
       </c>
       <c r="I54" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="J54" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2624,25 +2624,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F57" s="3">
         <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H57" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I57" s="3">
         <v>3400</v>
       </c>
       <c r="J57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2674,7 +2674,7 @@
         <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -2712,22 +2712,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="E59" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="F59" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G59" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H59" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="I59" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J59" s="3">
         <v>5100</v>
@@ -2756,25 +2756,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="E60" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="F60" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="G60" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="H60" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="I60" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="J60" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2809,10 +2809,10 @@
         <v>4800</v>
       </c>
       <c r="G61" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H61" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I61" s="3">
         <v>5000</v>
@@ -3020,25 +3020,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="E66" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="F66" s="3">
-        <v>28000</v>
+        <v>27600</v>
       </c>
       <c r="G66" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="H66" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="I66" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="J66" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3185,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>103800</v>
+        <v>102400</v>
       </c>
       <c r="J70" s="3">
-        <v>102100</v>
+        <v>100800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3258,25 +3258,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-125900</v>
+        <v>-124300</v>
       </c>
       <c r="E72" s="3">
-        <v>-118200</v>
+        <v>-116700</v>
       </c>
       <c r="F72" s="3">
-        <v>-118200</v>
+        <v>-116600</v>
       </c>
       <c r="G72" s="3">
-        <v>-115300</v>
+        <v>-113800</v>
       </c>
       <c r="H72" s="3">
-        <v>-112200</v>
+        <v>-110800</v>
       </c>
       <c r="I72" s="3">
-        <v>-109800</v>
+        <v>-108400</v>
       </c>
       <c r="J72" s="3">
-        <v>-106500</v>
+        <v>-105100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3434,25 +3434,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="E76" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F76" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="G76" s="3">
-        <v>47300</v>
+        <v>46700</v>
       </c>
       <c r="H76" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="I76" s="3">
-        <v>-92200</v>
+        <v>-91000</v>
       </c>
       <c r="J76" s="3">
-        <v>-89600</v>
+        <v>-88500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J81" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K81" s="3">
         <v>-3400</v>
@@ -3639,7 +3639,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3897,13 +3897,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="E89" s="3">
         <v>-6500</v>
       </c>
       <c r="F89" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="G89" s="3">
         <v>-4500</v>
@@ -3915,7 +3915,7 @@
         <v>-4700</v>
       </c>
       <c r="J89" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K89" s="3">
         <v>-2900</v>
@@ -3959,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4091,16 +4091,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H94" s="3">
         <v>1300</v>
@@ -4109,7 +4109,7 @@
         <v>-1500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-1600</v>
@@ -4329,25 +4329,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>39400</v>
+        <v>38900</v>
       </c>
       <c r="I100" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J100" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K100" s="3">
         <v>7200</v>
@@ -4417,19 +4417,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="F102" s="3">
         <v>-2600</v>
       </c>
       <c r="G102" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="H102" s="3">
-        <v>42900</v>
+        <v>42400</v>
       </c>
       <c r="I102" s="3">
         <v>-2100</v>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,231 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8400</v>
+        <v>1900</v>
       </c>
       <c r="E8" s="3">
-        <v>10900</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="3">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="G8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>6500</v>
+        <v>2300</v>
       </c>
       <c r="F10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7800</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="F12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4200</v>
       </c>
       <c r="K12" s="3">
         <v>2200</v>
       </c>
       <c r="L12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16000</v>
+        <v>13600</v>
       </c>
       <c r="E17" s="3">
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="F17" s="3">
-        <v>8400</v>
+        <v>16300</v>
       </c>
       <c r="G17" s="3">
-        <v>6100</v>
+        <v>11400</v>
       </c>
       <c r="H17" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="I17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7600</v>
+        <v>-11700</v>
       </c>
       <c r="E18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7400</v>
+        <v>-11300</v>
       </c>
       <c r="E21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,10 +1366,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1300,85 +1380,97 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7800</v>
+        <v>-11700</v>
       </c>
       <c r="E23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1386,19 +1478,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7800</v>
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7600</v>
+        <v>-11600</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="F27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7600</v>
+        <v>-11600</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="F33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7600</v>
+        <v>-11600</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="F35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2138,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21200</v>
+        <v>50100</v>
       </c>
       <c r="E41" s="3">
-        <v>24300</v>
+        <v>72400</v>
       </c>
       <c r="F41" s="3">
-        <v>35100</v>
+        <v>21600</v>
       </c>
       <c r="G41" s="3">
-        <v>37700</v>
+        <v>24700</v>
       </c>
       <c r="H41" s="3">
-        <v>49500</v>
+        <v>35700</v>
       </c>
       <c r="I41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,38 +2184,44 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7600</v>
+        <v>13600</v>
       </c>
       <c r="E42" s="3">
-        <v>13000</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
-        <v>4500</v>
+        <v>7700</v>
       </c>
       <c r="G42" s="3">
-        <v>1800</v>
+        <v>13300</v>
       </c>
       <c r="H42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,38 +2234,44 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25600</v>
+        <v>17900</v>
       </c>
       <c r="E43" s="3">
-        <v>22100</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>12800</v>
+        <v>26100</v>
       </c>
       <c r="G43" s="3">
-        <v>8600</v>
+        <v>22500</v>
       </c>
       <c r="H43" s="3">
-        <v>9300</v>
+        <v>13000</v>
       </c>
       <c r="I43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,38 +2284,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="E44" s="3">
-        <v>8700</v>
+        <v>6800</v>
       </c>
       <c r="F44" s="3">
         <v>7400</v>
       </c>
       <c r="G44" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="H44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,38 +2334,44 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3400</v>
       </c>
       <c r="H45" s="3">
         <v>3200</v>
       </c>
       <c r="I45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2384,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>65400</v>
+        <v>94900</v>
       </c>
       <c r="E46" s="3">
-        <v>71700</v>
+        <v>101700</v>
       </c>
       <c r="F46" s="3">
-        <v>63000</v>
+        <v>66500</v>
       </c>
       <c r="G46" s="3">
-        <v>56000</v>
+        <v>72900</v>
       </c>
       <c r="H46" s="3">
-        <v>66000</v>
+        <v>64000</v>
       </c>
       <c r="I46" s="3">
+        <v>57000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K46" s="3">
         <v>25000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,37 +2434,43 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>7400</v>
       </c>
       <c r="I47" s="3">
-        <v>500</v>
+        <v>7400</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>500</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2274,38 +2484,44 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,13 +2534,19 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -2339,16 +2561,16 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,19 +2684,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2476,11 +2716,11 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2784,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74600</v>
+        <v>103500</v>
       </c>
       <c r="E54" s="3">
-        <v>76500</v>
+        <v>112400</v>
       </c>
       <c r="F54" s="3">
-        <v>72600</v>
+        <v>75900</v>
       </c>
       <c r="G54" s="3">
-        <v>65800</v>
+        <v>77800</v>
       </c>
       <c r="H54" s="3">
-        <v>69200</v>
+        <v>73800</v>
       </c>
       <c r="I54" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K54" s="3">
         <v>28000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2878,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
-        <v>8100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4500</v>
-      </c>
       <c r="H57" s="3">
-        <v>4200</v>
+        <v>6400</v>
       </c>
       <c r="I57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,38 +2924,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,38 +2974,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13800</v>
+        <v>12300</v>
       </c>
       <c r="E59" s="3">
-        <v>13100</v>
+        <v>11800</v>
       </c>
       <c r="F59" s="3">
-        <v>7400</v>
+        <v>14100</v>
       </c>
       <c r="G59" s="3">
-        <v>7800</v>
+        <v>13300</v>
       </c>
       <c r="H59" s="3">
-        <v>9700</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +3024,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24300</v>
+        <v>19500</v>
       </c>
       <c r="E60" s="3">
-        <v>23500</v>
+        <v>19700</v>
       </c>
       <c r="F60" s="3">
-        <v>15200</v>
+        <v>24700</v>
       </c>
       <c r="G60" s="3">
-        <v>13000</v>
+        <v>23900</v>
       </c>
       <c r="H60" s="3">
-        <v>14700</v>
+        <v>15500</v>
       </c>
       <c r="I60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +3074,44 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +3124,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3324,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32100</v>
+        <v>30300</v>
       </c>
       <c r="E66" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="F66" s="3">
-        <v>27600</v>
+        <v>32600</v>
       </c>
       <c r="G66" s="3">
-        <v>19100</v>
+        <v>32000</v>
       </c>
       <c r="H66" s="3">
-        <v>21200</v>
+        <v>28100</v>
       </c>
       <c r="I66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,17 +3521,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>102400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>100800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3594,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-124300</v>
+        <v>-147700</v>
       </c>
       <c r="E72" s="3">
-        <v>-116700</v>
+        <v>-136100</v>
       </c>
       <c r="F72" s="3">
-        <v>-116600</v>
+        <v>-126300</v>
       </c>
       <c r="G72" s="3">
-        <v>-113800</v>
+        <v>-118600</v>
       </c>
       <c r="H72" s="3">
-        <v>-110800</v>
+        <v>-118600</v>
       </c>
       <c r="I72" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-108400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-105100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3794,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42500</v>
+        <v>73200</v>
       </c>
       <c r="E76" s="3">
-        <v>45000</v>
+        <v>81800</v>
       </c>
       <c r="F76" s="3">
-        <v>45000</v>
+        <v>43300</v>
       </c>
       <c r="G76" s="3">
-        <v>46700</v>
+        <v>45800</v>
       </c>
       <c r="H76" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="I76" s="3">
+        <v>47400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-91000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-88500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7600</v>
+        <v>-11600</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="F81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3645,34 +4043,40 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5500</v>
+        <v>-9300</v>
       </c>
       <c r="E89" s="3">
-        <v>-6500</v>
+        <v>2500</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-5600</v>
       </c>
       <c r="G89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4000</v>
+        <v>-11300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3900</v>
+        <v>3600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2800</v>
+        <v>4100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7500</v>
+        <v>-4000</v>
       </c>
       <c r="H94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>38900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>500</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-22300</v>
       </c>
       <c r="E102" s="3">
-        <v>-10800</v>
+        <v>50500</v>
       </c>
       <c r="F102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>42400</v>
-      </c>
       <c r="I102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,191 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
-        <v>8500</v>
-      </c>
       <c r="G8" s="3">
-        <v>11100</v>
+        <v>8600</v>
       </c>
       <c r="H8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
-        <v>2900</v>
-      </c>
       <c r="J8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1600</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
-        <v>4500</v>
-      </c>
       <c r="H9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>700</v>
       </c>
       <c r="N9" s="3">
         <v>700</v>
       </c>
       <c r="O9" s="3">
+        <v>700</v>
+      </c>
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,49 +857,52 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
-        <v>1700</v>
-      </c>
       <c r="J10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2900</v>
       </c>
       <c r="L10" s="3">
         <v>2900</v>
       </c>
       <c r="M10" s="3">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
+        <v>900</v>
+      </c>
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,99 +1161,105 @@
         <v>13600</v>
       </c>
       <c r="E17" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="F17" s="3">
-        <v>16300</v>
+        <v>14100</v>
       </c>
       <c r="G17" s="3">
-        <v>11400</v>
+        <v>16400</v>
       </c>
       <c r="H17" s="3">
-        <v>8600</v>
+        <v>11500</v>
       </c>
       <c r="I17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="E18" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-7700</v>
-      </c>
       <c r="G18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-11300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-9500</v>
+        <v>-11100</v>
       </c>
       <c r="F21" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2800</v>
-      </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-2500</v>
       </c>
       <c r="J21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1412,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1386,8 +1426,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11700</v>
+        <v>-11400</v>
       </c>
       <c r="E23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-7900</v>
-      </c>
       <c r="G23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1469,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1484,19 +1530,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11700</v>
+        <v>-11400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="F26" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="E27" s="3">
-        <v>-9700</v>
+        <v>-11700</v>
       </c>
       <c r="F27" s="3">
-        <v>-7700</v>
+        <v>-9800</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9700</v>
+        <v>-11700</v>
       </c>
       <c r="F33" s="3">
-        <v>-7700</v>
+        <v>-9800</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9700</v>
+        <v>-11700</v>
       </c>
       <c r="F35" s="3">
-        <v>-7700</v>
+        <v>-9800</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50100</v>
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>72400</v>
+        <v>50500</v>
       </c>
       <c r="F41" s="3">
-        <v>21600</v>
+        <v>73000</v>
       </c>
       <c r="G41" s="3">
-        <v>24700</v>
+        <v>21700</v>
       </c>
       <c r="H41" s="3">
-        <v>35700</v>
+        <v>24900</v>
       </c>
       <c r="I41" s="3">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="J41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K41" s="3">
         <v>50400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13600</v>
+        <v>11500</v>
       </c>
       <c r="E42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F42" s="3">
         <v>2800</v>
       </c>
-      <c r="F42" s="3">
-        <v>7700</v>
-      </c>
       <c r="G42" s="3">
-        <v>13300</v>
+        <v>7800</v>
       </c>
       <c r="H42" s="3">
-        <v>4600</v>
+        <v>13400</v>
       </c>
       <c r="I42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17900</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>18100</v>
       </c>
       <c r="F43" s="3">
-        <v>26100</v>
+        <v>15600</v>
       </c>
       <c r="G43" s="3">
-        <v>22500</v>
+        <v>26300</v>
       </c>
       <c r="H43" s="3">
-        <v>13000</v>
+        <v>22700</v>
       </c>
       <c r="I43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J43" s="3">
         <v>8800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2383,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8500</v>
+        <v>10400</v>
       </c>
       <c r="E44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F44" s="3">
         <v>6800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7500</v>
       </c>
-      <c r="I44" s="3">
-        <v>4500</v>
-      </c>
       <c r="J44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
-        <v>3400</v>
-      </c>
       <c r="J45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94900</v>
+        <v>87300</v>
       </c>
       <c r="E46" s="3">
-        <v>101700</v>
+        <v>95700</v>
       </c>
       <c r="F46" s="3">
-        <v>66500</v>
+        <v>102500</v>
       </c>
       <c r="G46" s="3">
-        <v>72900</v>
+        <v>67000</v>
       </c>
       <c r="H46" s="3">
-        <v>64000</v>
+        <v>73400</v>
       </c>
       <c r="I46" s="3">
-        <v>57000</v>
+        <v>64500</v>
       </c>
       <c r="J46" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K46" s="3">
         <v>67100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,31 +2542,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3">
         <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="G47" s="3">
         <v>2800</v>
       </c>
       <c r="H47" s="3">
-        <v>7400</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J47" s="3">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="K47" s="3">
         <v>500</v>
@@ -2472,8 +2577,8 @@
       <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>500</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E48" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2500</v>
       </c>
       <c r="K48" s="3">
         <v>2500</v>
       </c>
       <c r="L48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,7 +2660,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2567,13 +2678,13 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,22 +2807,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2722,8 +2842,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103500</v>
+        <v>96000</v>
       </c>
       <c r="E54" s="3">
-        <v>112400</v>
+        <v>104300</v>
       </c>
       <c r="F54" s="3">
-        <v>75900</v>
+        <v>113300</v>
       </c>
       <c r="G54" s="3">
-        <v>77800</v>
+        <v>76400</v>
       </c>
       <c r="H54" s="3">
-        <v>73800</v>
+        <v>78400</v>
       </c>
       <c r="I54" s="3">
-        <v>66900</v>
+        <v>74400</v>
       </c>
       <c r="J54" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K54" s="3">
         <v>70400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
-        <v>5500</v>
-      </c>
       <c r="F57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,19 +3073,19 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="F58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
@@ -2960,11 +3094,11 @@
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12300</v>
+        <v>10100</v>
       </c>
       <c r="E59" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>11900</v>
       </c>
       <c r="G59" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>13400</v>
       </c>
       <c r="I59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="E60" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="F60" s="3">
-        <v>24700</v>
+        <v>19900</v>
       </c>
       <c r="G60" s="3">
-        <v>23900</v>
+        <v>24900</v>
       </c>
       <c r="H60" s="3">
-        <v>15500</v>
+        <v>24000</v>
       </c>
       <c r="I60" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="J60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K60" s="3">
         <v>15000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,41 +3220,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +3294,7 @@
         <v>1400</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
@@ -3157,13 +3303,13 @@
         <v>900</v>
       </c>
       <c r="K62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>800</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30300</v>
+        <v>29500</v>
       </c>
       <c r="E66" s="3">
-        <v>30600</v>
+        <v>30500</v>
       </c>
       <c r="F66" s="3">
-        <v>32600</v>
+        <v>30800</v>
       </c>
       <c r="G66" s="3">
-        <v>32000</v>
+        <v>32900</v>
       </c>
       <c r="H66" s="3">
-        <v>28100</v>
+        <v>32200</v>
       </c>
       <c r="I66" s="3">
-        <v>19400</v>
+        <v>28300</v>
       </c>
       <c r="J66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K66" s="3">
         <v>21600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>102400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>100800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-147700</v>
+        <v>-160200</v>
       </c>
       <c r="E72" s="3">
-        <v>-136100</v>
+        <v>-148900</v>
       </c>
       <c r="F72" s="3">
-        <v>-126300</v>
+        <v>-137100</v>
       </c>
       <c r="G72" s="3">
-        <v>-118600</v>
+        <v>-127300</v>
       </c>
       <c r="H72" s="3">
-        <v>-118600</v>
+        <v>-119600</v>
       </c>
       <c r="I72" s="3">
-        <v>-115700</v>
+        <v>-119500</v>
       </c>
       <c r="J72" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-112600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-108400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73200</v>
+        <v>66500</v>
       </c>
       <c r="E76" s="3">
-        <v>81800</v>
+        <v>73800</v>
       </c>
       <c r="F76" s="3">
-        <v>43300</v>
+        <v>82400</v>
       </c>
       <c r="G76" s="3">
-        <v>45800</v>
+        <v>43600</v>
       </c>
       <c r="H76" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="I76" s="3">
-        <v>47400</v>
+        <v>46100</v>
       </c>
       <c r="J76" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-91000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-88500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9700</v>
+        <v>-11700</v>
       </c>
       <c r="F81" s="3">
-        <v>-7700</v>
+        <v>-9800</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>400</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>-600</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-9300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>2500</v>
+        <v>-6800</v>
       </c>
       <c r="F89" s="3">
-        <v>-5600</v>
+        <v>26500</v>
       </c>
       <c r="G89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
-        <v>-7000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-4500</v>
+        <v>-11600</v>
       </c>
       <c r="J89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,49 +4615,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-600</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
+        <v>100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-400</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-11300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>3600</v>
+        <v>-7800</v>
       </c>
       <c r="F94" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G94" s="3">
         <v>4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-2900</v>
-      </c>
       <c r="I94" s="3">
-        <v>-7600</v>
+        <v>-10500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>43700</v>
+        <v>43200</v>
       </c>
       <c r="F100" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="K100" s="3">
+        <v>39600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>39600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-900</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
+        <v>200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>200</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-22300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>50500</v>
+        <v>28400</v>
       </c>
       <c r="F102" s="3">
+        <v>79500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-11000</v>
-      </c>
       <c r="H102" s="3">
-        <v>-2600</v>
+        <v>-11100</v>
       </c>
       <c r="I102" s="3">
-        <v>-12000</v>
+        <v>-14700</v>
       </c>
       <c r="J102" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K102" s="3">
         <v>43100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="3">
         <v>1900</v>
       </c>
       <c r="F8" s="3">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="H8" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
       </c>
       <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
-        <v>1300</v>
-      </c>
       <c r="G9" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="3">
-        <v>4600</v>
+        <v>3300</v>
       </c>
       <c r="I9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="G10" s="3">
-        <v>5100</v>
+        <v>2100</v>
       </c>
       <c r="H10" s="3">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="3">
-        <v>3200</v>
+        <v>6200</v>
       </c>
       <c r="J10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2900</v>
       </c>
       <c r="M10" s="3">
         <v>2900</v>
       </c>
       <c r="N10" s="3">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="O10" s="3">
         <v>900</v>
       </c>
       <c r="P10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E12" s="3">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="F12" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="G12" s="3">
-        <v>8000</v>
+        <v>4100</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>7500</v>
       </c>
       <c r="I12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J12" s="3">
         <v>2600</v>
       </c>
       <c r="K12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13600</v>
+        <v>16900</v>
       </c>
       <c r="E17" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="F17" s="3">
-        <v>14100</v>
+        <v>12800</v>
       </c>
       <c r="G17" s="3">
-        <v>16400</v>
+        <v>13100</v>
       </c>
       <c r="H17" s="3">
-        <v>11500</v>
+        <v>15300</v>
       </c>
       <c r="I17" s="3">
-        <v>8700</v>
+        <v>10700</v>
       </c>
       <c r="J17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11600</v>
+        <v>-15600</v>
       </c>
       <c r="E18" s="3">
-        <v>-11800</v>
+        <v>-10800</v>
       </c>
       <c r="F18" s="3">
-        <v>-10400</v>
+        <v>-11000</v>
       </c>
       <c r="G18" s="3">
-        <v>-7800</v>
+        <v>-9800</v>
       </c>
       <c r="H18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>700</v>
-      </c>
       <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>-11100</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
       <c r="G21" s="3">
-        <v>-7600</v>
+        <v>-9900</v>
       </c>
       <c r="H21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-2500</v>
-      </c>
       <c r="J21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1454,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1429,8 +1468,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1438,61 +1477,67 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11400</v>
+        <v>-15400</v>
       </c>
       <c r="E23" s="3">
-        <v>-11800</v>
+        <v>-10600</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>-11000</v>
       </c>
       <c r="G23" s="3">
-        <v>-8000</v>
+        <v>-9200</v>
       </c>
       <c r="H23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1518,11 +1563,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1533,19 +1578,22 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11400</v>
+        <v>-15400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11800</v>
+        <v>-10600</v>
       </c>
       <c r="F26" s="3">
-        <v>-9900</v>
+        <v>-11000</v>
       </c>
       <c r="G26" s="3">
-        <v>-8000</v>
+        <v>-9200</v>
       </c>
       <c r="H26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11400</v>
+        <v>-15500</v>
       </c>
       <c r="E27" s="3">
-        <v>-11700</v>
+        <v>-10600</v>
       </c>
       <c r="F27" s="3">
-        <v>-9800</v>
+        <v>-11000</v>
       </c>
       <c r="G27" s="3">
-        <v>-7800</v>
+        <v>-9200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-7200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-700</v>
-      </c>
       <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11400</v>
+        <v>-15500</v>
       </c>
       <c r="E33" s="3">
-        <v>-11700</v>
+        <v>-10600</v>
       </c>
       <c r="F33" s="3">
-        <v>-9800</v>
+        <v>-11000</v>
       </c>
       <c r="G33" s="3">
-        <v>-7800</v>
+        <v>-9200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-7200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11400</v>
+        <v>-15500</v>
       </c>
       <c r="E35" s="3">
-        <v>-11700</v>
+        <v>-10600</v>
       </c>
       <c r="F35" s="3">
-        <v>-9800</v>
+        <v>-11000</v>
       </c>
       <c r="G35" s="3">
-        <v>-7800</v>
+        <v>-9200</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-7200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44900</v>
+        <v>36400</v>
       </c>
       <c r="E41" s="3">
-        <v>50500</v>
+        <v>41900</v>
       </c>
       <c r="F41" s="3">
-        <v>73000</v>
+        <v>47100</v>
       </c>
       <c r="G41" s="3">
-        <v>21700</v>
+        <v>68200</v>
       </c>
       <c r="H41" s="3">
-        <v>24900</v>
+        <v>20300</v>
       </c>
       <c r="I41" s="3">
-        <v>36000</v>
+        <v>23300</v>
       </c>
       <c r="J41" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K41" s="3">
         <v>38700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,44 +2366,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11500</v>
+        <v>9600</v>
       </c>
       <c r="E42" s="3">
-        <v>13700</v>
+        <v>10700</v>
       </c>
       <c r="F42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M42" s="3">
         <v>2800</v>
       </c>
-      <c r="G42" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,44 +2422,47 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15100</v>
+        <v>8500</v>
       </c>
       <c r="E43" s="3">
-        <v>18100</v>
+        <v>14100</v>
       </c>
       <c r="F43" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="G43" s="3">
-        <v>26300</v>
+        <v>14600</v>
       </c>
       <c r="H43" s="3">
-        <v>22700</v>
+        <v>24500</v>
       </c>
       <c r="I43" s="3">
-        <v>13100</v>
+        <v>21200</v>
       </c>
       <c r="J43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K43" s="3">
         <v>8800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,44 +2478,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10400</v>
+        <v>11500</v>
       </c>
       <c r="E44" s="3">
-        <v>8600</v>
+        <v>9700</v>
       </c>
       <c r="F44" s="3">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="G44" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="H44" s="3">
-        <v>8900</v>
+        <v>6900</v>
       </c>
       <c r="I44" s="3">
-        <v>7500</v>
+        <v>8400</v>
       </c>
       <c r="J44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,44 +2534,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F45" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="H45" s="3">
         <v>3500</v>
       </c>
       <c r="I45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87300</v>
+        <v>70300</v>
       </c>
       <c r="E46" s="3">
-        <v>95700</v>
+        <v>81500</v>
       </c>
       <c r="F46" s="3">
-        <v>102500</v>
+        <v>89400</v>
       </c>
       <c r="G46" s="3">
-        <v>67000</v>
+        <v>95800</v>
       </c>
       <c r="H46" s="3">
-        <v>73400</v>
+        <v>62500</v>
       </c>
       <c r="I46" s="3">
-        <v>64500</v>
+        <v>68600</v>
       </c>
       <c r="J46" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K46" s="3">
         <v>57400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,34 +2646,37 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>500</v>
       </c>
       <c r="L47" s="3">
         <v>500</v>
@@ -2580,8 +2684,8 @@
       <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>500</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2598,44 +2702,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="E48" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2500</v>
       </c>
       <c r="L48" s="3">
         <v>2500</v>
       </c>
       <c r="M48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,10 +2773,10 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2681,13 +2791,13 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,25 +2926,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3400</v>
       </c>
       <c r="G52" s="3">
         <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2845,8 +2964,8 @@
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E54" s="3">
-        <v>104300</v>
+        <v>89700</v>
       </c>
       <c r="F54" s="3">
-        <v>113300</v>
+        <v>97400</v>
       </c>
       <c r="G54" s="3">
-        <v>76400</v>
+        <v>105800</v>
       </c>
       <c r="H54" s="3">
-        <v>78400</v>
+        <v>71400</v>
       </c>
       <c r="I54" s="3">
-        <v>74400</v>
+        <v>73200</v>
       </c>
       <c r="J54" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K54" s="3">
         <v>67400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>6600</v>
       </c>
       <c r="F57" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="I57" s="3">
-        <v>6400</v>
+        <v>7700</v>
       </c>
       <c r="J57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,31 +3194,34 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="3">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H58" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
@@ -3097,11 +3230,11 @@
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,44 +3250,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10100</v>
+        <v>11500</v>
       </c>
       <c r="E59" s="3">
-        <v>12400</v>
+        <v>9400</v>
       </c>
       <c r="F59" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="G59" s="3">
-        <v>14200</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="I59" s="3">
-        <v>7600</v>
+        <v>12500</v>
       </c>
       <c r="J59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18700</v>
+        <v>20100</v>
       </c>
       <c r="E60" s="3">
-        <v>19600</v>
+        <v>17500</v>
       </c>
       <c r="F60" s="3">
-        <v>19900</v>
+        <v>18300</v>
       </c>
       <c r="G60" s="3">
-        <v>24900</v>
+        <v>18500</v>
       </c>
       <c r="H60" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="I60" s="3">
-        <v>15600</v>
+        <v>22500</v>
       </c>
       <c r="J60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K60" s="3">
         <v>13300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,44 +3362,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="F61" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,43 +3418,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1400</v>
-      </c>
       <c r="I62" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="J62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
       </c>
       <c r="L62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>800</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29500</v>
+        <v>29900</v>
       </c>
       <c r="E66" s="3">
-        <v>30500</v>
+        <v>27600</v>
       </c>
       <c r="F66" s="3">
-        <v>30800</v>
+        <v>28500</v>
       </c>
       <c r="G66" s="3">
-        <v>32900</v>
+        <v>28800</v>
       </c>
       <c r="H66" s="3">
-        <v>32200</v>
+        <v>30700</v>
       </c>
       <c r="I66" s="3">
-        <v>28300</v>
+        <v>30100</v>
       </c>
       <c r="J66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,14 +3865,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>102400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>100800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-160200</v>
+        <v>-165200</v>
       </c>
       <c r="E72" s="3">
-        <v>-148900</v>
+        <v>-149600</v>
       </c>
       <c r="F72" s="3">
-        <v>-137100</v>
+        <v>-139000</v>
       </c>
       <c r="G72" s="3">
-        <v>-127300</v>
+        <v>-128100</v>
       </c>
       <c r="H72" s="3">
-        <v>-119600</v>
+        <v>-118900</v>
       </c>
       <c r="I72" s="3">
-        <v>-119500</v>
+        <v>-111700</v>
       </c>
       <c r="J72" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-116600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-108400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66500</v>
+        <v>49000</v>
       </c>
       <c r="E76" s="3">
-        <v>73800</v>
+        <v>62100</v>
       </c>
       <c r="F76" s="3">
-        <v>82400</v>
+        <v>68900</v>
       </c>
       <c r="G76" s="3">
-        <v>43600</v>
+        <v>77000</v>
       </c>
       <c r="H76" s="3">
-        <v>46100</v>
+        <v>40700</v>
       </c>
       <c r="I76" s="3">
-        <v>46100</v>
+        <v>43100</v>
       </c>
       <c r="J76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K76" s="3">
         <v>47800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-91000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-88500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11400</v>
+        <v>-15500</v>
       </c>
       <c r="E81" s="3">
-        <v>-11700</v>
+        <v>-10600</v>
       </c>
       <c r="F81" s="3">
-        <v>-9800</v>
+        <v>-11000</v>
       </c>
       <c r="G81" s="3">
-        <v>-7800</v>
+        <v>-9200</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-7200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
-        <v>-800</v>
-      </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>-700</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-6800</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>26500</v>
+        <v>-6400</v>
       </c>
       <c r="G89" s="3">
-        <v>-5700</v>
+        <v>24700</v>
       </c>
       <c r="H89" s="3">
-        <v>-6600</v>
+        <v>-5300</v>
       </c>
       <c r="I89" s="3">
-        <v>-11600</v>
+        <v>-6200</v>
       </c>
       <c r="J89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,52 +4835,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1900</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-400</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-7800</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>14100</v>
+        <v>-7300</v>
       </c>
       <c r="G94" s="3">
-        <v>4100</v>
+        <v>13100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4000</v>
+        <v>3800</v>
       </c>
       <c r="I94" s="3">
-        <v>-10500</v>
+        <v>-3800</v>
       </c>
       <c r="J94" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>43200</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>37300</v>
+        <v>40400</v>
       </c>
       <c r="G100" s="3">
+        <v>34800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>7000</v>
-      </c>
       <c r="J100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-51700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>1700</v>
-      </c>
       <c r="G101" s="3">
-        <v>-600</v>
+        <v>1600</v>
       </c>
       <c r="H101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>28400</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>79500</v>
+        <v>26500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2800</v>
+        <v>74200</v>
       </c>
       <c r="H102" s="3">
-        <v>-11100</v>
+        <v>-2600</v>
       </c>
       <c r="I102" s="3">
-        <v>-14700</v>
+        <v>-10400</v>
       </c>
       <c r="J102" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-53100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,282 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4200</v>
       </c>
       <c r="O12" s="3">
         <v>2200</v>
       </c>
       <c r="P12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16900</v>
+        <v>13000</v>
       </c>
       <c r="E17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>15300</v>
-      </c>
       <c r="I17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15600</v>
+        <v>-10900</v>
       </c>
       <c r="E18" s="3">
-        <v>-10800</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-11000</v>
+        <v>-15500</v>
       </c>
       <c r="G18" s="3">
-        <v>-9800</v>
+        <v>-10700</v>
       </c>
       <c r="H18" s="3">
-        <v>-7300</v>
+        <v>-10900</v>
       </c>
       <c r="I18" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,52 +1454,58 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-9900</v>
+        <v>-14000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-7100</v>
+        <v>-10500</v>
       </c>
       <c r="I21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,10 +1537,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1471,73 +1551,85 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15400</v>
+        <v>-10800</v>
       </c>
       <c r="E23" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="F23" s="3">
-        <v>-11000</v>
+        <v>-15200</v>
       </c>
       <c r="G23" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1554,26 +1646,26 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1581,19 +1673,25 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15400</v>
+        <v>-10800</v>
       </c>
       <c r="E26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-9200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-7500</v>
+        <v>-10900</v>
       </c>
       <c r="I26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15500</v>
+        <v>-10700</v>
       </c>
       <c r="E27" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="F27" s="3">
-        <v>-11000</v>
+        <v>-15400</v>
       </c>
       <c r="G27" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15500</v>
+        <v>-10700</v>
       </c>
       <c r="E33" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="F33" s="3">
-        <v>-11000</v>
+        <v>-15400</v>
       </c>
       <c r="G33" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15500</v>
+        <v>-10700</v>
       </c>
       <c r="E35" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="F35" s="3">
-        <v>-11000</v>
+        <v>-15400</v>
       </c>
       <c r="G35" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2485,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36400</v>
+        <v>30200</v>
       </c>
       <c r="E41" s="3">
-        <v>41900</v>
+        <v>29800</v>
       </c>
       <c r="F41" s="3">
-        <v>47100</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="3">
-        <v>68200</v>
+        <v>41500</v>
       </c>
       <c r="H41" s="3">
-        <v>20300</v>
+        <v>46700</v>
       </c>
       <c r="I41" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>33600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>38700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>50400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,50 +2543,56 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9600</v>
+        <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>10700</v>
+        <v>4800</v>
       </c>
       <c r="F42" s="3">
-        <v>12800</v>
+        <v>9500</v>
       </c>
       <c r="G42" s="3">
-        <v>2700</v>
+        <v>10600</v>
       </c>
       <c r="H42" s="3">
-        <v>7300</v>
+        <v>12600</v>
       </c>
       <c r="I42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K42" s="3">
         <v>12500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,50 +2605,56 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="E43" s="3">
-        <v>14100</v>
+        <v>7900</v>
       </c>
       <c r="F43" s="3">
-        <v>16900</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="H43" s="3">
-        <v>24500</v>
+        <v>16700</v>
       </c>
       <c r="I43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K43" s="3">
         <v>21200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,50 +2667,56 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E44" s="3">
-        <v>9700</v>
+        <v>12500</v>
       </c>
       <c r="F44" s="3">
-        <v>8000</v>
+        <v>11400</v>
       </c>
       <c r="G44" s="3">
-        <v>6400</v>
+        <v>9600</v>
       </c>
       <c r="H44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J44" s="3">
         <v>6900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,50 +2729,56 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="E45" s="3">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,50 +2791,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70300</v>
+        <v>59700</v>
       </c>
       <c r="E46" s="3">
-        <v>81500</v>
+        <v>62000</v>
       </c>
       <c r="F46" s="3">
-        <v>89400</v>
+        <v>69700</v>
       </c>
       <c r="G46" s="3">
-        <v>95800</v>
+        <v>80800</v>
       </c>
       <c r="H46" s="3">
-        <v>62500</v>
+        <v>88500</v>
       </c>
       <c r="I46" s="3">
+        <v>94900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K46" s="3">
         <v>68600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>57400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>67100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>25000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,49 +2853,55 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2400</v>
-      </c>
       <c r="H47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>500</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>500</v>
+      </c>
+      <c r="P47" s="3">
+        <v>500</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2705,50 +2915,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="E48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3100</v>
-      </c>
       <c r="I48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2977,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2779,10 +3001,10 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2794,16 +3016,16 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,31 +3163,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>400</v>
-      </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2967,11 +3207,11 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2985,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3287,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78900</v>
+        <v>68900</v>
       </c>
       <c r="E54" s="3">
-        <v>89700</v>
+        <v>71300</v>
       </c>
       <c r="F54" s="3">
-        <v>97400</v>
+        <v>78200</v>
       </c>
       <c r="G54" s="3">
-        <v>105800</v>
+        <v>88900</v>
       </c>
       <c r="H54" s="3">
-        <v>71400</v>
+        <v>96600</v>
       </c>
       <c r="I54" s="3">
+        <v>104900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K54" s="3">
         <v>73200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>69500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>67400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>70400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,50 +3401,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5300</v>
-      </c>
       <c r="G57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,50 +3459,56 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2200</v>
       </c>
       <c r="I58" s="3">
         <v>2200</v>
       </c>
       <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
       </c>
       <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
+        <v>800</v>
+      </c>
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,50 +3521,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
-        <v>9400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>13200</v>
-      </c>
       <c r="I59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3583,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20100</v>
+        <v>25300</v>
       </c>
       <c r="E60" s="3">
-        <v>17500</v>
+        <v>21900</v>
       </c>
       <c r="F60" s="3">
-        <v>18300</v>
+        <v>19900</v>
       </c>
       <c r="G60" s="3">
-        <v>18500</v>
+        <v>17300</v>
       </c>
       <c r="H60" s="3">
-        <v>23300</v>
+        <v>18100</v>
       </c>
       <c r="I60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K60" s="3">
         <v>22500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,50 +3645,56 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2900</v>
       </c>
       <c r="G61" s="3">
         <v>2900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3421,50 +3707,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>1300</v>
       </c>
       <c r="J62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3955,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29900</v>
+        <v>34500</v>
       </c>
       <c r="E66" s="3">
-        <v>27600</v>
+        <v>31300</v>
       </c>
       <c r="F66" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="G66" s="3">
-        <v>28800</v>
+        <v>27300</v>
       </c>
       <c r="H66" s="3">
-        <v>30700</v>
+        <v>28200</v>
       </c>
       <c r="I66" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K66" s="3">
         <v>30100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,17 +4204,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>102400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>100800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,50 +4289,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-165200</v>
+        <v>-184500</v>
       </c>
       <c r="E72" s="3">
-        <v>-149600</v>
+        <v>-173700</v>
       </c>
       <c r="F72" s="3">
-        <v>-139000</v>
+        <v>-163700</v>
       </c>
       <c r="G72" s="3">
-        <v>-128100</v>
+        <v>-148300</v>
       </c>
       <c r="H72" s="3">
-        <v>-118900</v>
+        <v>-137800</v>
       </c>
       <c r="I72" s="3">
+        <v>-126900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-111700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-111600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-116600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-112600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-108400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-105100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4537,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49000</v>
+        <v>34400</v>
       </c>
       <c r="E76" s="3">
-        <v>62100</v>
+        <v>40000</v>
       </c>
       <c r="F76" s="3">
-        <v>68900</v>
+        <v>48600</v>
       </c>
       <c r="G76" s="3">
-        <v>77000</v>
+        <v>61600</v>
       </c>
       <c r="H76" s="3">
-        <v>40700</v>
+        <v>68300</v>
       </c>
       <c r="I76" s="3">
+        <v>76300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K76" s="3">
         <v>43100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>47800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-91000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-88500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15500</v>
+        <v>-10700</v>
       </c>
       <c r="E81" s="3">
-        <v>-10600</v>
+        <v>-10000</v>
       </c>
       <c r="F81" s="3">
-        <v>-11000</v>
+        <v>-15400</v>
       </c>
       <c r="G81" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4434,52 +4832,58 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="M83" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4770,52 +5204,58 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>24700</v>
+        <v>-17800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-5300</v>
+        <v>-8700</v>
       </c>
       <c r="I89" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4848,52 +5290,58 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5016,52 +5476,58 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>13100</v>
+        <v>-4900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>3800</v>
+        <v>-10600</v>
       </c>
       <c r="I94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5318,52 +5810,58 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>40400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>34800</v>
+        <v>39000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I100" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-51700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>39600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,52 +5872,58 @@
         <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5430,48 +5934,54 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>74200</v>
+        <v>15600</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>-2600</v>
+        <v>-20800</v>
       </c>
       <c r="I102" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-53100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>43100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
       </c>
       <c r="F8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I8" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J8" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="K8" s="3">
         <v>10500</v>
@@ -833,13 +833,13 @@
         <v>700</v>
       </c>
       <c r="H9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>1200</v>
       </c>
       <c r="J9" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K9" s="3">
         <v>4300</v>
@@ -889,19 +889,19 @@
         <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H10" s="3">
         <v>1200</v>
       </c>
       <c r="I10" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J10" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K10" s="3">
         <v>6200</v>
@@ -969,25 +969,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F12" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I12" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="E17" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="F17" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="G17" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="H17" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="I17" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="J17" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="K17" s="3">
         <v>10700</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10900</v>
+        <v>-10300</v>
       </c>
       <c r="E18" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="F18" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="G18" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="H18" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I18" s="3">
-        <v>-9700</v>
+        <v>-9200</v>
       </c>
       <c r="J18" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1454,19 +1454,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="I21" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="J21" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="E23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-10100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I23" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J23" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="E26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H26" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I26" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J26" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="E27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I27" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J27" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="E33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I33" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J33" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="E35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I35" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J35" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30200</v>
+        <v>28800</v>
       </c>
       <c r="E41" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="F41" s="3">
-        <v>36000</v>
+        <v>34400</v>
       </c>
       <c r="G41" s="3">
-        <v>41500</v>
+        <v>39600</v>
       </c>
       <c r="H41" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="I41" s="3">
-        <v>67500</v>
+        <v>64400</v>
       </c>
       <c r="J41" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="K41" s="3">
         <v>23300</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E42" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F42" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G42" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="H42" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="I42" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J42" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="K42" s="3">
         <v>12500</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F43" s="3">
         <v>8000</v>
       </c>
-      <c r="E43" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8400</v>
-      </c>
       <c r="G43" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="H43" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="I43" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="J43" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="K43" s="3">
         <v>21200</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="E44" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="F44" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="G44" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="H44" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="I44" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="J44" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="K44" s="3">
         <v>8400</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I45" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J45" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="E46" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="F46" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="G46" s="3">
-        <v>80800</v>
+        <v>77000</v>
       </c>
       <c r="H46" s="3">
-        <v>88500</v>
+        <v>84400</v>
       </c>
       <c r="I46" s="3">
-        <v>94900</v>
+        <v>90500</v>
       </c>
       <c r="J46" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="K46" s="3">
         <v>68600</v>
@@ -2868,22 +2868,22 @@
         <v>1400</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J47" s="3">
         <v>2500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2600</v>
       </c>
       <c r="K47" s="3">
         <v>2600</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
-        <v>7700</v>
-      </c>
       <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
-        <v>5200</v>
-      </c>
       <c r="H48" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I48" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J48" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K48" s="3">
         <v>1800</v>
@@ -3007,7 +3007,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -3190,10 +3190,10 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J52" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68900</v>
+        <v>65600</v>
       </c>
       <c r="E54" s="3">
-        <v>71300</v>
+        <v>68000</v>
       </c>
       <c r="F54" s="3">
-        <v>78200</v>
+        <v>74500</v>
       </c>
       <c r="G54" s="3">
-        <v>88900</v>
+        <v>84700</v>
       </c>
       <c r="H54" s="3">
-        <v>96600</v>
+        <v>92000</v>
       </c>
       <c r="I54" s="3">
-        <v>104900</v>
+        <v>100000</v>
       </c>
       <c r="J54" s="3">
-        <v>70800</v>
+        <v>67400</v>
       </c>
       <c r="K54" s="3">
         <v>73200</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I57" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J57" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="K57" s="3">
         <v>7700</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>2200</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="E59" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="F59" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="G59" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="H59" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="I59" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K59" s="3">
         <v>12500</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="E60" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="F60" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="G60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H60" s="3">
         <v>17300</v>
       </c>
-      <c r="H60" s="3">
-        <v>18100</v>
-      </c>
       <c r="I60" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="J60" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="K60" s="3">
         <v>22500</v>
@@ -3657,22 +3657,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1300</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="E66" s="3">
-        <v>31300</v>
+        <v>29900</v>
       </c>
       <c r="F66" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="G66" s="3">
-        <v>27300</v>
+        <v>26100</v>
       </c>
       <c r="H66" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="I66" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="J66" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="K66" s="3">
         <v>30100</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-184500</v>
+        <v>-175800</v>
       </c>
       <c r="E72" s="3">
-        <v>-173700</v>
+        <v>-165600</v>
       </c>
       <c r="F72" s="3">
-        <v>-163700</v>
+        <v>-156000</v>
       </c>
       <c r="G72" s="3">
-        <v>-148300</v>
+        <v>-141400</v>
       </c>
       <c r="H72" s="3">
-        <v>-137800</v>
+        <v>-131300</v>
       </c>
       <c r="I72" s="3">
-        <v>-126900</v>
+        <v>-121000</v>
       </c>
       <c r="J72" s="3">
-        <v>-117800</v>
+        <v>-112300</v>
       </c>
       <c r="K72" s="3">
         <v>-111700</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="E76" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="F76" s="3">
-        <v>48600</v>
+        <v>46300</v>
       </c>
       <c r="G76" s="3">
-        <v>61600</v>
+        <v>58700</v>
       </c>
       <c r="H76" s="3">
-        <v>68300</v>
+        <v>65100</v>
       </c>
       <c r="I76" s="3">
-        <v>76300</v>
+        <v>72700</v>
       </c>
       <c r="J76" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="K76" s="3">
         <v>43100</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="E81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I81" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="J81" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -5204,19 +5204,19 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-17800</v>
+        <v>-16900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="I89" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="J89" s="3">
-        <v>-22200</v>
+        <v>-21100</v>
       </c>
       <c r="K89" s="3">
         <v>-6200</v>
@@ -5290,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -5302,7 +5302,7 @@
         <v>100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="I94" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="J94" s="3">
-        <v>-9700</v>
+        <v>-9200</v>
       </c>
       <c r="K94" s="3">
         <v>-3800</v>
@@ -5810,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -5819,10 +5819,10 @@
         <v>-700</v>
       </c>
       <c r="I100" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="J100" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
@@ -5878,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J101" s="3">
         <v>-900</v>
@@ -5934,19 +5934,19 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="I102" s="3">
-        <v>73600</v>
+        <v>70100</v>
       </c>
       <c r="J102" s="3">
-        <v>-26500</v>
+        <v>-25300</v>
       </c>
       <c r="K102" s="3">
         <v>-10400</v>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3200</v>
-      </c>
       <c r="J8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1600</v>
       </c>
       <c r="R8" s="3">
         <v>1600</v>
       </c>
       <c r="S8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
-        <v>500</v>
-      </c>
       <c r="I9" s="3">
+        <v>600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>700</v>
       </c>
       <c r="R9" s="3">
         <v>700</v>
       </c>
       <c r="S9" s="3">
+        <v>700</v>
+      </c>
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
-        <v>700</v>
-      </c>
       <c r="G10" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>1200</v>
       </c>
       <c r="I10" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2900</v>
       </c>
       <c r="P10" s="3">
         <v>2900</v>
       </c>
       <c r="Q10" s="3">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="R10" s="3">
         <v>900</v>
       </c>
       <c r="S10" s="3">
+        <v>900</v>
+      </c>
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H12" s="3">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2600</v>
       </c>
       <c r="M12" s="3">
         <v>2600</v>
       </c>
       <c r="N12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12100</v>
-      </c>
       <c r="I17" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="J17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="E18" s="3">
-        <v>-8900</v>
+        <v>-10700</v>
       </c>
       <c r="F18" s="3">
-        <v>-14800</v>
+        <v>-9200</v>
       </c>
       <c r="G18" s="3">
-        <v>-10200</v>
+        <v>-15200</v>
       </c>
       <c r="H18" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="I18" s="3">
-        <v>-9200</v>
+        <v>-10800</v>
       </c>
       <c r="J18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-600</v>
-      </c>
       <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1453,59 +1490,62 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13400</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-10000</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-9300</v>
+        <v>-10300</v>
       </c>
       <c r="J21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1583,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1557,8 +1597,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10300</v>
+        <v>-11000</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F23" s="3">
-        <v>-14500</v>
+        <v>-9900</v>
       </c>
       <c r="G23" s="3">
-        <v>-10100</v>
+        <v>-15000</v>
       </c>
       <c r="H23" s="3">
         <v>-10400</v>
       </c>
       <c r="I23" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1664,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1679,19 +1725,22 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10300</v>
+        <v>-11000</v>
       </c>
       <c r="E26" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F26" s="3">
-        <v>-14500</v>
+        <v>-9900</v>
       </c>
       <c r="G26" s="3">
-        <v>-10100</v>
+        <v>-15000</v>
       </c>
       <c r="H26" s="3">
         <v>-10400</v>
       </c>
       <c r="I26" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="E27" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F27" s="3">
-        <v>-14700</v>
+        <v>-9900</v>
       </c>
       <c r="G27" s="3">
-        <v>-10000</v>
+        <v>-15100</v>
       </c>
       <c r="H27" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I27" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>600</v>
-      </c>
       <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="E33" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F33" s="3">
-        <v>-14700</v>
+        <v>-9900</v>
       </c>
       <c r="G33" s="3">
-        <v>-10000</v>
+        <v>-15100</v>
       </c>
       <c r="H33" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I33" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="E35" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F35" s="3">
-        <v>-14700</v>
+        <v>-9900</v>
       </c>
       <c r="G35" s="3">
-        <v>-10000</v>
+        <v>-15100</v>
       </c>
       <c r="H35" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I35" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28800</v>
+        <v>19700</v>
       </c>
       <c r="E41" s="3">
-        <v>28400</v>
+        <v>29700</v>
       </c>
       <c r="F41" s="3">
-        <v>34400</v>
+        <v>29300</v>
       </c>
       <c r="G41" s="3">
-        <v>39600</v>
+        <v>35500</v>
       </c>
       <c r="H41" s="3">
-        <v>44500</v>
+        <v>40800</v>
       </c>
       <c r="I41" s="3">
-        <v>64400</v>
+        <v>45900</v>
       </c>
       <c r="J41" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F42" s="3">
         <v>4700</v>
       </c>
-      <c r="E42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>9100</v>
-      </c>
       <c r="G42" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="H42" s="3">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="I42" s="3">
-        <v>2500</v>
+        <v>12400</v>
       </c>
       <c r="J42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K42" s="3">
         <v>6900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7600</v>
+        <v>5600</v>
       </c>
       <c r="E43" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="F43" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G43" s="3">
-        <v>13300</v>
+        <v>8300</v>
       </c>
       <c r="H43" s="3">
-        <v>15900</v>
+        <v>13800</v>
       </c>
       <c r="I43" s="3">
-        <v>13800</v>
+        <v>16400</v>
       </c>
       <c r="J43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K43" s="3">
         <v>23200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,53 +2766,56 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E44" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="F44" s="3">
-        <v>10900</v>
+        <v>12300</v>
       </c>
       <c r="G44" s="3">
-        <v>9200</v>
+        <v>11200</v>
       </c>
       <c r="H44" s="3">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="I44" s="3">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="J44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K44" s="3">
         <v>6600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>4900</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>6900</v>
       </c>
       <c r="G45" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="H45" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
       </c>
       <c r="L45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>56900</v>
+        <v>54000</v>
       </c>
       <c r="E46" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>61000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>68500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>79500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>87100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K46" s="3">
         <v>59100</v>
       </c>
-      <c r="F46" s="3">
-        <v>66400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>77000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>84400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>90500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>59100</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>60200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,34 +2973,34 @@
         <v>1400</v>
       </c>
       <c r="E47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
-        <v>3000</v>
-      </c>
       <c r="G47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2200</v>
-      </c>
       <c r="J47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>500</v>
       </c>
       <c r="O47" s="3">
         <v>500</v>
@@ -2903,8 +3008,8 @@
       <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>500</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>16600</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
         <v>4900</v>
       </c>
       <c r="H48" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="I48" s="3">
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="J48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2500</v>
       </c>
       <c r="O48" s="3">
         <v>2500</v>
       </c>
       <c r="P48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,13 +3091,16 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3010,7 +3121,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -3022,13 +3133,13 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,7 +3298,7 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3187,16 +3307,16 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
-        <v>3000</v>
-      </c>
       <c r="J52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3213,8 +3333,8 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65600</v>
+        <v>72500</v>
       </c>
       <c r="E54" s="3">
-        <v>68000</v>
+        <v>67700</v>
       </c>
       <c r="F54" s="3">
-        <v>74500</v>
+        <v>70100</v>
       </c>
       <c r="G54" s="3">
-        <v>84700</v>
+        <v>76900</v>
       </c>
       <c r="H54" s="3">
-        <v>92000</v>
+        <v>87400</v>
       </c>
       <c r="I54" s="3">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="J54" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K54" s="3">
         <v>67400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="H57" s="3">
-        <v>5000</v>
+        <v>6400</v>
       </c>
       <c r="I57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,40 +3596,43 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4700</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="F58" s="3">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="G58" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1400</v>
       </c>
       <c r="I58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
@@ -3507,11 +3641,11 @@
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="E59" s="3">
-        <v>11800</v>
+        <v>14200</v>
       </c>
       <c r="F59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J59" s="3">
         <v>10800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>12500</v>
       </c>
       <c r="K59" s="3">
         <v>12500</v>
       </c>
       <c r="L59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24100</v>
+        <v>27200</v>
       </c>
       <c r="E60" s="3">
-        <v>20900</v>
+        <v>24900</v>
       </c>
       <c r="F60" s="3">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="G60" s="3">
-        <v>16500</v>
+        <v>19600</v>
       </c>
       <c r="H60" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="I60" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="J60" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K60" s="3">
         <v>22000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,41 +3806,41 @@
         <v>700</v>
       </c>
       <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="G61" s="3">
-        <v>2800</v>
-      </c>
       <c r="H61" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I61" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,19 +3856,22 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>11400</v>
       </c>
       <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1100</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
@@ -3740,25 +3886,25 @@
         <v>1200</v>
       </c>
       <c r="K62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>900</v>
       </c>
       <c r="N62" s="3">
         <v>900</v>
       </c>
       <c r="O62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>800</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32900</v>
+        <v>45100</v>
       </c>
       <c r="E66" s="3">
-        <v>29900</v>
+        <v>33900</v>
       </c>
       <c r="F66" s="3">
-        <v>28200</v>
+        <v>30800</v>
       </c>
       <c r="G66" s="3">
-        <v>26100</v>
+        <v>29100</v>
       </c>
       <c r="H66" s="3">
         <v>26900</v>
       </c>
       <c r="I66" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="J66" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K66" s="3">
         <v>29000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,14 +4378,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>102400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>100800</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-175800</v>
+        <v>-192400</v>
       </c>
       <c r="E72" s="3">
-        <v>-165600</v>
+        <v>-181400</v>
       </c>
       <c r="F72" s="3">
-        <v>-156000</v>
+        <v>-170900</v>
       </c>
       <c r="G72" s="3">
-        <v>-141400</v>
+        <v>-161000</v>
       </c>
       <c r="H72" s="3">
-        <v>-131300</v>
+        <v>-145900</v>
       </c>
       <c r="I72" s="3">
-        <v>-121000</v>
+        <v>-135500</v>
       </c>
       <c r="J72" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-112300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-111700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-108400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32800</v>
+        <v>27400</v>
       </c>
       <c r="E76" s="3">
-        <v>38100</v>
+        <v>33800</v>
       </c>
       <c r="F76" s="3">
-        <v>46300</v>
+        <v>39300</v>
       </c>
       <c r="G76" s="3">
-        <v>58700</v>
+        <v>47800</v>
       </c>
       <c r="H76" s="3">
-        <v>65100</v>
+        <v>60500</v>
       </c>
       <c r="I76" s="3">
-        <v>72700</v>
+        <v>67200</v>
       </c>
       <c r="J76" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K76" s="3">
         <v>38500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>43100</v>
       </c>
       <c r="L76" s="3">
         <v>43100</v>
       </c>
       <c r="M76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="N76" s="3">
         <v>47800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-91000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-88500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="E81" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="F81" s="3">
-        <v>-14700</v>
+        <v>-9900</v>
       </c>
       <c r="G81" s="3">
-        <v>-10000</v>
+        <v>-15100</v>
       </c>
       <c r="H81" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I81" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="J81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4831,59 +5030,62 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>1100</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>-700</v>
-      </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5203,59 +5420,62 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-16900</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-8300</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>23400</v>
+        <v>-8500</v>
       </c>
       <c r="J89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,50 +5510,50 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2200</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>100</v>
       </c>
       <c r="J91" s="3">
         <v>-1200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>-400</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5475,59 +5705,62 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-4600</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-10100</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>12400</v>
+        <v>-10400</v>
       </c>
       <c r="J94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5809,59 +6055,62 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>37200</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
-        <v>32900</v>
-      </c>
       <c r="J100" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5871,59 +6120,62 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>-700</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
-        <v>1500</v>
-      </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5933,55 +6185,58 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>14900</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>-19800</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>70100</v>
+        <v>-20500</v>
       </c>
       <c r="J102" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-25300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1800</v>
       </c>
       <c r="J8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1600</v>
       </c>
       <c r="S8" s="3">
         <v>1600</v>
       </c>
       <c r="T8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>700</v>
       </c>
       <c r="S9" s="3">
         <v>700</v>
       </c>
       <c r="T9" s="3">
+        <v>700</v>
+      </c>
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>800</v>
-      </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2900</v>
       </c>
       <c r="Q10" s="3">
         <v>2900</v>
       </c>
       <c r="R10" s="3">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
       </c>
       <c r="T10" s="3">
+        <v>900</v>
+      </c>
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5600</v>
-      </c>
       <c r="H12" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2600</v>
       </c>
       <c r="N12" s="3">
         <v>2600</v>
       </c>
       <c r="O12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11800</v>
+        <v>15300</v>
       </c>
       <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>12800</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G18" s="3">
-        <v>-15200</v>
+        <v>-9100</v>
       </c>
       <c r="H18" s="3">
-        <v>-10500</v>
+        <v>-15100</v>
       </c>
       <c r="I18" s="3">
-        <v>-10800</v>
+        <v>-10400</v>
       </c>
       <c r="J18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1446,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-700</v>
-      </c>
       <c r="G20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1499,58 +1535,61 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-10300</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1586,7 +1625,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1600,8 +1639,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1609,73 +1648,79 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11000</v>
+        <v>-15700</v>
       </c>
       <c r="E23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1713,11 +1758,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1728,19 +1773,22 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11000</v>
+        <v>-15700</v>
       </c>
       <c r="E26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10900</v>
+        <v>-15600</v>
       </c>
       <c r="E27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>700</v>
-      </c>
       <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10900</v>
+        <v>-15600</v>
       </c>
       <c r="E33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10900</v>
+        <v>-15600</v>
       </c>
       <c r="E35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19700</v>
+        <v>35400</v>
       </c>
       <c r="E41" s="3">
-        <v>29700</v>
+        <v>19500</v>
       </c>
       <c r="F41" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="G41" s="3">
-        <v>35500</v>
+        <v>29000</v>
       </c>
       <c r="H41" s="3">
-        <v>40800</v>
+        <v>35100</v>
       </c>
       <c r="I41" s="3">
-        <v>45900</v>
+        <v>40400</v>
       </c>
       <c r="J41" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K41" s="3">
         <v>66400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2725,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F42" s="3">
         <v>4800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4700</v>
       </c>
-      <c r="G42" s="3">
-        <v>9400</v>
-      </c>
       <c r="H42" s="3">
-        <v>10400</v>
+        <v>9300</v>
       </c>
       <c r="I42" s="3">
-        <v>12400</v>
+        <v>10300</v>
       </c>
       <c r="J42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,56 +2793,59 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
-        <v>7900</v>
-      </c>
       <c r="F43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G43" s="3">
         <v>7700</v>
       </c>
-      <c r="G43" s="3">
-        <v>8300</v>
-      </c>
       <c r="H43" s="3">
-        <v>13800</v>
+        <v>8200</v>
       </c>
       <c r="I43" s="3">
-        <v>16400</v>
+        <v>13600</v>
       </c>
       <c r="J43" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,56 +2861,59 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11400</v>
+        <v>10300</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="F44" s="3">
-        <v>12300</v>
+        <v>11300</v>
       </c>
       <c r="G44" s="3">
-        <v>11200</v>
+        <v>12200</v>
       </c>
       <c r="H44" s="3">
-        <v>9500</v>
+        <v>11100</v>
       </c>
       <c r="I44" s="3">
-        <v>7800</v>
+        <v>9400</v>
       </c>
       <c r="J44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,56 +2929,59 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="E45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
-        <v>6900</v>
-      </c>
       <c r="G45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
-        <v>4500</v>
-      </c>
       <c r="J45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3300</v>
       </c>
       <c r="L45" s="3">
         <v>3300</v>
       </c>
       <c r="M45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +2997,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="E46" s="3">
-        <v>58700</v>
+        <v>53400</v>
       </c>
       <c r="F46" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="G46" s="3">
-        <v>68500</v>
+        <v>60300</v>
       </c>
       <c r="H46" s="3">
-        <v>79500</v>
+        <v>67800</v>
       </c>
       <c r="I46" s="3">
-        <v>87100</v>
+        <v>78600</v>
       </c>
       <c r="J46" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K46" s="3">
         <v>93300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>57400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,46 +3065,49 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
         <v>1400</v>
       </c>
       <c r="F47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
-        <v>3100</v>
-      </c>
       <c r="H47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I47" s="3">
         <v>2400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2300</v>
       </c>
       <c r="J47" s="3">
         <v>2300</v>
       </c>
       <c r="K47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L47" s="3">
         <v>2500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>500</v>
       </c>
       <c r="P47" s="3">
         <v>500</v>
@@ -3011,8 +3115,8 @@
       <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="R47" s="3">
+        <v>500</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -3029,56 +3133,59 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>16500</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G48" s="3">
-        <v>4900</v>
+        <v>7500</v>
       </c>
       <c r="H48" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I48" s="3">
         <v>5000</v>
       </c>
       <c r="J48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2500</v>
       </c>
       <c r="P48" s="3">
         <v>2500</v>
       </c>
       <c r="Q48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,16 +3201,19 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3124,7 +3234,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -3136,13 +3246,13 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +3420,7 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3310,16 +3429,16 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3336,8 +3455,8 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72500</v>
+        <v>75500</v>
       </c>
       <c r="E54" s="3">
-        <v>67700</v>
+        <v>71700</v>
       </c>
       <c r="F54" s="3">
-        <v>70100</v>
+        <v>67000</v>
       </c>
       <c r="G54" s="3">
-        <v>76900</v>
+        <v>69400</v>
       </c>
       <c r="H54" s="3">
-        <v>87400</v>
+        <v>76100</v>
       </c>
       <c r="I54" s="3">
-        <v>95000</v>
+        <v>86500</v>
       </c>
       <c r="J54" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K54" s="3">
         <v>103100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3663,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,47 +3673,47 @@
         <v>5000</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>4900</v>
       </c>
       <c r="F57" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="H57" s="3">
-        <v>6400</v>
-      </c>
       <c r="I57" s="3">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="J57" s="3">
         <v>5100</v>
       </c>
       <c r="K57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,43 +3729,46 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7800</v>
+        <v>17200</v>
       </c>
       <c r="E58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
-        <v>3600</v>
-      </c>
       <c r="G58" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="I58" s="3">
         <v>1400</v>
       </c>
       <c r="J58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
@@ -3644,11 +3777,11 @@
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,56 +3797,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14500</v>
+        <v>17900</v>
       </c>
       <c r="E59" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="F59" s="3">
-        <v>12200</v>
+        <v>14100</v>
       </c>
       <c r="G59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J59" s="3">
         <v>11200</v>
       </c>
-      <c r="H59" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>11300</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12500</v>
       </c>
       <c r="L59" s="3">
         <v>12500</v>
       </c>
       <c r="M59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +3865,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27200</v>
+        <v>40100</v>
       </c>
       <c r="E60" s="3">
-        <v>24900</v>
+        <v>27000</v>
       </c>
       <c r="F60" s="3">
-        <v>21500</v>
+        <v>24600</v>
       </c>
       <c r="G60" s="3">
-        <v>19600</v>
+        <v>21300</v>
       </c>
       <c r="H60" s="3">
-        <v>17000</v>
+        <v>19400</v>
       </c>
       <c r="I60" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="J60" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K60" s="3">
         <v>18100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,56 +3933,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="I61" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,16 +4013,16 @@
         <v>11400</v>
       </c>
       <c r="E62" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
@@ -3889,25 +4034,25 @@
         <v>1200</v>
       </c>
       <c r="L62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>900</v>
       </c>
       <c r="O62" s="3">
         <v>900</v>
       </c>
       <c r="P62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>800</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45100</v>
+        <v>57800</v>
       </c>
       <c r="E66" s="3">
-        <v>33900</v>
+        <v>44600</v>
       </c>
       <c r="F66" s="3">
-        <v>30800</v>
+        <v>33600</v>
       </c>
       <c r="G66" s="3">
-        <v>29100</v>
+        <v>30500</v>
       </c>
       <c r="H66" s="3">
-        <v>26900</v>
+        <v>28800</v>
       </c>
       <c r="I66" s="3">
-        <v>27800</v>
+        <v>26600</v>
       </c>
       <c r="J66" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K66" s="3">
         <v>28100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,14 +4548,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>102400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>100800</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-192400</v>
+        <v>-206000</v>
       </c>
       <c r="E72" s="3">
-        <v>-181400</v>
+        <v>-190400</v>
       </c>
       <c r="F72" s="3">
-        <v>-170900</v>
+        <v>-179600</v>
       </c>
       <c r="G72" s="3">
-        <v>-161000</v>
+        <v>-169100</v>
       </c>
       <c r="H72" s="3">
-        <v>-145900</v>
+        <v>-159300</v>
       </c>
       <c r="I72" s="3">
-        <v>-135500</v>
+        <v>-144400</v>
       </c>
       <c r="J72" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-124800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-116600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-112600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-108400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-105100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27400</v>
+        <v>17700</v>
       </c>
       <c r="E76" s="3">
-        <v>33800</v>
+        <v>27100</v>
       </c>
       <c r="F76" s="3">
-        <v>39300</v>
+        <v>33500</v>
       </c>
       <c r="G76" s="3">
-        <v>47800</v>
+        <v>38900</v>
       </c>
       <c r="H76" s="3">
-        <v>60500</v>
+        <v>47300</v>
       </c>
       <c r="I76" s="3">
-        <v>67200</v>
+        <v>59900</v>
       </c>
       <c r="J76" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K76" s="3">
         <v>75100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>43100</v>
       </c>
       <c r="M76" s="3">
         <v>43100</v>
       </c>
       <c r="N76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="O76" s="3">
         <v>47800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-88500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10900</v>
+        <v>-15600</v>
       </c>
       <c r="E81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,53 +5237,56 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>300</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5622,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5429,53 +5645,56 @@
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
-        <v>-8500</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,64 +5718,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-1200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>-400</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -5564,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5714,53 +5943,56 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>-10400</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K94" s="3">
         <v>3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6286,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6064,53 +6309,56 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>-700</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K100" s="3">
         <v>40000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6129,53 +6377,56 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
-        <v>600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6194,49 +6445,52 @@
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
-        <v>-20500</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K102" s="3">
         <v>46300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>EH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,333 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="3">
         <v>1400</v>
       </c>
       <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1016,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="K12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>4200</v>
       </c>
       <c r="S12" s="3">
         <v>2200</v>
       </c>
       <c r="T12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V12" s="3">
         <v>2000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15300</v>
+        <v>11800</v>
       </c>
       <c r="E17" s="3">
-        <v>11600</v>
+        <v>13500</v>
       </c>
       <c r="F17" s="3">
-        <v>12600</v>
+        <v>14900</v>
       </c>
       <c r="G17" s="3">
-        <v>9900</v>
+        <v>11300</v>
       </c>
       <c r="H17" s="3">
-        <v>16300</v>
+        <v>12300</v>
       </c>
       <c r="I17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13100</v>
+        <v>-10400</v>
       </c>
       <c r="E18" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="F18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,76 +1513,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,63 +1613,69 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1628,10 +1708,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1642,85 +1722,97 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15700</v>
+        <v>-10200</v>
       </c>
       <c r="E23" s="3">
-        <v>-10900</v>
+        <v>-12000</v>
       </c>
       <c r="F23" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-10500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-14800</v>
+        <v>-10200</v>
       </c>
       <c r="I23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1761,14 +1853,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1776,19 +1868,25 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15700</v>
+        <v>-10200</v>
       </c>
       <c r="E26" s="3">
-        <v>-10900</v>
+        <v>-12000</v>
       </c>
       <c r="F26" s="3">
-        <v>-10500</v>
+        <v>-15200</v>
       </c>
       <c r="G26" s="3">
-        <v>-9800</v>
+        <v>-10600</v>
       </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>-10200</v>
       </c>
       <c r="I26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15600</v>
+        <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-10800</v>
+        <v>-12000</v>
       </c>
       <c r="F27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-15000</v>
+        <v>-10100</v>
       </c>
       <c r="I27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15600</v>
+        <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-10800</v>
+        <v>-12000</v>
       </c>
       <c r="F33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-15000</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15600</v>
+        <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-10800</v>
+        <v>-12000</v>
       </c>
       <c r="F35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-15000</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,62 +2832,64 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35400</v>
+        <v>17500</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>25400</v>
       </c>
       <c r="F41" s="3">
-        <v>29400</v>
+        <v>34300</v>
       </c>
       <c r="G41" s="3">
-        <v>29000</v>
+        <v>18900</v>
       </c>
       <c r="H41" s="3">
-        <v>35100</v>
+        <v>28500</v>
       </c>
       <c r="I41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K41" s="3">
         <v>40400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>45500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>66400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>33600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>38700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>50400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,62 +2902,68 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10100</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>4700</v>
+        <v>9800</v>
       </c>
       <c r="H42" s="3">
-        <v>9300</v>
+        <v>4600</v>
       </c>
       <c r="I42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K42" s="3">
         <v>10300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,62 +2976,68 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="E43" s="3">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="F43" s="3">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="G43" s="3">
-        <v>7700</v>
+        <v>5400</v>
       </c>
       <c r="H43" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="I43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K43" s="3">
         <v>13600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>23200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,62 +3050,68 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="E44" s="3">
-        <v>11300</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G44" s="3">
-        <v>12200</v>
+        <v>10900</v>
       </c>
       <c r="H44" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="I44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K44" s="3">
         <v>9400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,62 +3124,68 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6400</v>
+        <v>11300</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>10500</v>
       </c>
       <c r="F45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>4600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,62 +3198,68 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55000</v>
+        <v>40800</v>
       </c>
       <c r="E46" s="3">
-        <v>53400</v>
+        <v>48400</v>
       </c>
       <c r="F46" s="3">
-        <v>58100</v>
+        <v>53300</v>
       </c>
       <c r="G46" s="3">
-        <v>60300</v>
+        <v>51800</v>
       </c>
       <c r="H46" s="3">
-        <v>67800</v>
+        <v>56300</v>
       </c>
       <c r="I46" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K46" s="3">
         <v>78600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>86200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>93300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>59100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>68600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>60200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>57400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>67100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>25000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>19800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,61 +3272,67 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>500</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+      <c r="T47" s="3">
+        <v>500</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
@@ -3136,62 +3346,68 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17100</v>
+        <v>16200</v>
       </c>
       <c r="E48" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="F48" s="3">
-        <v>7100</v>
+        <v>16600</v>
       </c>
       <c r="G48" s="3">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="H48" s="3">
-        <v>4800</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3420,14 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3213,13 +3435,13 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>300</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3237,10 +3459,10 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -3249,16 +3471,16 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3272,8 +3494,14 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,28 +3663,28 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -3458,11 +3698,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3476,8 +3716,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,62 +3790,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75500</v>
+        <v>60500</v>
       </c>
       <c r="E54" s="3">
-        <v>71700</v>
+        <v>67400</v>
       </c>
       <c r="F54" s="3">
-        <v>67000</v>
+        <v>73100</v>
       </c>
       <c r="G54" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="H54" s="3">
-        <v>76100</v>
+        <v>65000</v>
       </c>
       <c r="I54" s="3">
+        <v>67300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K54" s="3">
         <v>86500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>94000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>103100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>67400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>73200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>69500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>70400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>28000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3864,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,62 +3924,64 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
-        <v>5700</v>
-      </c>
       <c r="G57" s="3">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="H57" s="3">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="I57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,62 +3994,68 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17200</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>19400</v>
       </c>
       <c r="F58" s="3">
-        <v>4800</v>
+        <v>16600</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>7400</v>
       </c>
       <c r="H58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2100</v>
       </c>
       <c r="M58" s="3">
         <v>2200</v>
       </c>
       <c r="N58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,62 +4068,68 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="E59" s="3">
-        <v>14300</v>
+        <v>17300</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>17400</v>
       </c>
       <c r="G59" s="3">
-        <v>12100</v>
+        <v>13900</v>
       </c>
       <c r="H59" s="3">
-        <v>11100</v>
+        <v>13700</v>
       </c>
       <c r="I59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,62 +4142,68 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40100</v>
+        <v>30500</v>
       </c>
       <c r="E60" s="3">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="F60" s="3">
-        <v>24600</v>
+        <v>38900</v>
       </c>
       <c r="G60" s="3">
-        <v>21300</v>
+        <v>26100</v>
       </c>
       <c r="H60" s="3">
-        <v>19400</v>
+        <v>23900</v>
       </c>
       <c r="I60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K60" s="3">
         <v>16900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>22500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,62 +4216,68 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
-        <v>700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4004,31 +4290,37 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -4037,29 +4329,29 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,62 +4586,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57800</v>
+        <v>47600</v>
       </c>
       <c r="E66" s="3">
-        <v>44600</v>
+        <v>58100</v>
       </c>
       <c r="F66" s="3">
-        <v>33600</v>
+        <v>56000</v>
       </c>
       <c r="G66" s="3">
-        <v>30500</v>
+        <v>43200</v>
       </c>
       <c r="H66" s="3">
-        <v>28800</v>
+        <v>32500</v>
       </c>
       <c r="I66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K66" s="3">
         <v>26600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4660,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4551,17 +4887,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>102400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>100800</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,62 +4984,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-206000</v>
+        <v>-222400</v>
       </c>
       <c r="E72" s="3">
-        <v>-190400</v>
+        <v>-212000</v>
       </c>
       <c r="F72" s="3">
-        <v>-179600</v>
+        <v>-199700</v>
       </c>
       <c r="G72" s="3">
-        <v>-169100</v>
+        <v>-184500</v>
       </c>
       <c r="H72" s="3">
-        <v>-159300</v>
+        <v>-174000</v>
       </c>
       <c r="I72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-144400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-134100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-124800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-112300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-111700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-111600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-116600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-112600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-108400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-105100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +5058,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,62 +5280,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17700</v>
+        <v>12800</v>
       </c>
       <c r="E76" s="3">
-        <v>27100</v>
+        <v>9300</v>
       </c>
       <c r="F76" s="3">
-        <v>33500</v>
+        <v>17100</v>
       </c>
       <c r="G76" s="3">
-        <v>38900</v>
+        <v>26300</v>
       </c>
       <c r="H76" s="3">
-        <v>47300</v>
+        <v>32400</v>
       </c>
       <c r="I76" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K76" s="3">
         <v>59900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>66500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>75100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>43100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>43100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>47800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>48800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-91000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-88500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5354,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15600</v>
+        <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-10800</v>
+        <v>-12000</v>
       </c>
       <c r="F81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-15000</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5241,52 +5639,58 @@
         <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>900</v>
+      </c>
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>-600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5649,52 +6083,58 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5743,52 +6185,58 @@
         <v>-1100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5947,52 +6407,58 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6313,52 +6805,58 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>38900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>40000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-51700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>39600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6381,52 +6879,58 @@
         <v>3</v>
       </c>
       <c r="J101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6449,48 +6953,54 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>25600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-25300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-53100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>43100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EH_QTR_FIN.xlsx
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
         <v>1100</v>
@@ -934,7 +934,7 @@
         <v>700</v>
       </c>
       <c r="H10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
@@ -1042,7 +1042,7 @@
         <v>4400</v>
       </c>
       <c r="J12" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K12" s="3">
         <v>5500</v>
@@ -1363,7 +1363,7 @@
         <v>9600</v>
       </c>
       <c r="J17" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="K17" s="3">
         <v>12300</v>
@@ -1422,7 +1422,7 @@
         <v>-10400</v>
       </c>
       <c r="E18" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="F18" s="3">
         <v>-12700</v>
@@ -1431,7 +1431,7 @@
         <v>-10200</v>
       </c>
       <c r="H18" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="I18" s="3">
         <v>-8800</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1752,7 +1752,7 @@
         <v>-15200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H23" s="3">
         <v>-10200</v>
@@ -2045,19 +2045,19 @@
         <v>-12000</v>
       </c>
       <c r="F27" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G27" s="3">
         <v>-10500</v>
       </c>
       <c r="H27" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I27" s="3">
         <v>-9500</v>
       </c>
       <c r="J27" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="K27" s="3">
         <v>-10200</v>
@@ -2489,19 +2489,19 @@
         <v>-12000</v>
       </c>
       <c r="F33" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G33" s="3">
         <v>-10500</v>
       </c>
       <c r="H33" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I33" s="3">
         <v>-9500</v>
       </c>
       <c r="J33" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="K33" s="3">
         <v>-10200</v>
@@ -2637,19 +2637,19 @@
         <v>-12000</v>
       </c>
       <c r="F35" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G35" s="3">
         <v>-10500</v>
       </c>
       <c r="H35" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I35" s="3">
         <v>-9500</v>
       </c>
       <c r="J35" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="K35" s="3">
         <v>-10200</v>
@@ -2846,19 +2846,19 @@
         <v>25400</v>
       </c>
       <c r="F41" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="G41" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="H41" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="I41" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="J41" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="K41" s="3">
         <v>40400</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H42" s="3">
         <v>4600</v>
@@ -3071,7 +3071,7 @@
         <v>10000</v>
       </c>
       <c r="G44" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H44" s="3">
         <v>10900</v>
@@ -3213,22 +3213,22 @@
         <v>40800</v>
       </c>
       <c r="E46" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="F46" s="3">
-        <v>53300</v>
+        <v>53500</v>
       </c>
       <c r="G46" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="H46" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="I46" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="J46" s="3">
-        <v>65700</v>
+        <v>65900</v>
       </c>
       <c r="K46" s="3">
         <v>78600</v>
@@ -3287,7 +3287,7 @@
         <v>3100</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
@@ -3802,25 +3802,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="E54" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>73300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>69700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>65100</v>
+      </c>
+      <c r="I54" s="3">
         <v>67400</v>
       </c>
-      <c r="F54" s="3">
-        <v>73100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>69500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>65000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>67300</v>
-      </c>
       <c r="J54" s="3">
-        <v>73800</v>
+        <v>73900</v>
       </c>
       <c r="K54" s="3">
         <v>86500</v>
@@ -3944,7 +3944,7 @@
         <v>4800</v>
       </c>
       <c r="H57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I57" s="3">
         <v>5500</v>
@@ -4012,13 +4012,13 @@
         <v>19400</v>
       </c>
       <c r="F58" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I58" s="3">
         <v>3400</v>
@@ -4080,7 +4080,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="E59" s="3">
         <v>17300</v>
@@ -4098,7 +4098,7 @@
         <v>11700</v>
       </c>
       <c r="J59" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="K59" s="3">
         <v>9100</v>
@@ -4157,19 +4157,19 @@
         <v>30500</v>
       </c>
       <c r="E60" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="F60" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="G60" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="H60" s="3">
         <v>23900</v>
       </c>
       <c r="I60" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="J60" s="3">
         <v>18800</v>
@@ -4302,10 +4302,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="E62" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="3">
         <v>11000</v>
@@ -4598,25 +4598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="E66" s="3">
-        <v>58100</v>
+        <v>58200</v>
       </c>
       <c r="F66" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="G66" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="H66" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="I66" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="J66" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="K66" s="3">
         <v>26600</v>
@@ -4996,25 +4996,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-222400</v>
+        <v>-222900</v>
       </c>
       <c r="E72" s="3">
-        <v>-212000</v>
+        <v>-212400</v>
       </c>
       <c r="F72" s="3">
-        <v>-199700</v>
+        <v>-200100</v>
       </c>
       <c r="G72" s="3">
-        <v>-184500</v>
+        <v>-184900</v>
       </c>
       <c r="H72" s="3">
-        <v>-174000</v>
+        <v>-174400</v>
       </c>
       <c r="I72" s="3">
-        <v>-163900</v>
+        <v>-164300</v>
       </c>
       <c r="J72" s="3">
-        <v>-154400</v>
+        <v>-154800</v>
       </c>
       <c r="K72" s="3">
         <v>-144400</v>
@@ -5292,25 +5292,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="E76" s="3">
         <v>9300</v>
       </c>
       <c r="F76" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="G76" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="H76" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="I76" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="J76" s="3">
-        <v>45800</v>
+        <v>45900</v>
       </c>
       <c r="K76" s="3">
         <v>59900</v>
@@ -5525,19 +5525,19 @@
         <v>-12000</v>
       </c>
       <c r="F81" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G81" s="3">
         <v>-10500</v>
       </c>
       <c r="H81" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I81" s="3">
         <v>-9500</v>
       </c>
       <c r="J81" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="K81" s="3">
         <v>-10200</v>
@@ -6805,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -6953,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
